--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>R40</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>bl97</t>
+  </si>
+  <si>
+    <t>i15</t>
+  </si>
+  <si>
+    <t>z25</t>
+  </si>
+  <si>
+    <t>bl60</t>
   </si>
 </sst>
 </file>
@@ -427,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,8 +446,8 @@
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="11" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="2" customFormat="1">
@@ -475,6 +484,15 @@
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:65">
       <c r="A2" s="3">
@@ -508,9 +526,15 @@
       <c r="K2" s="3">
         <v>357655105048441</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="L2" s="3">
+        <v>357651101395241</v>
+      </c>
+      <c r="M2" s="3">
+        <v>351918111257661</v>
+      </c>
+      <c r="N2" s="3">
+        <v>353515112106828</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -585,7 +609,9 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3">
+        <v>353515112117809</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -660,7 +686,9 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="3">
+        <v>353515112099809</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -730,7 +758,9 @@
         <v>359998102939321</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>357655105939623</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1574,7 +1604,9 @@
       <c r="D17" s="3">
         <v>359152107936789</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>359777106739642</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1643,7 +1675,9 @@
       <c r="D18" s="3">
         <v>359152108572922</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>359777107011629</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1712,7 +1746,9 @@
       <c r="D19" s="3">
         <v>359152108573649</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>359777106967862</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1781,7 +1817,9 @@
       <c r="D20" s="3">
         <v>359152108617743</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>359777106807803</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1850,7 +1888,9 @@
       <c r="D21" s="3">
         <v>359152108573185</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>359777107008468</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1985,7 +2025,9 @@
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>359152107529881</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2052,7 +2094,9 @@
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>359152107530467</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>

--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>R40</t>
   </si>
@@ -62,6 +62,24 @@
   <si>
     <t>bl60</t>
   </si>
+  <si>
+    <t>b24</t>
+  </si>
+  <si>
+    <t>s40_skd</t>
+  </si>
+  <si>
+    <t>mitali</t>
+  </si>
+  <si>
+    <t>v128</t>
+  </si>
+  <si>
+    <t>d54+</t>
+  </si>
+  <si>
+    <t>bl98</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,11 +137,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +193,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,113 +498,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM613"/>
+  <dimension ref="A1:BN613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="2" customFormat="1">
+    <row r="1" spans="1:66" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:65">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="3">
         <v>355580101818062</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="C2" s="5">
+        <v>358444100839107</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>359152107940328</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>359777106716822</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>2561</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>355569102026809</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>357654105507225</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>359998102928126</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>353428111871105</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>357655105048441</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>357651101395241</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>351918111257661</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>353515112106828</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="P2" s="3">
+        <v>353363111554809</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>352605111390860</v>
+      </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="3">
+        <v>355599100016767</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -586,38 +675,47 @@
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
-    </row>
-    <row r="3" spans="1:65">
+      <c r="BN2" s="3"/>
+    </row>
+    <row r="3" spans="1:66">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="C3" s="5">
+        <v>358444100840568</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>359152107937720</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>359777107014961</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>359998103191005</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>357655105058945</v>
       </c>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>353515112117809</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="3">
+        <v>353363111385642</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>352605111389128</v>
+      </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3">
+        <v>355599100086497</v>
+      </c>
+      <c r="T3" s="7"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -663,38 +761,47 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
-    </row>
-    <row r="4" spans="1:65">
+      <c r="BN3" s="3"/>
+    </row>
+    <row r="4" spans="1:66">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="C4" s="5">
+        <v>358444100853546</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>359152107940468</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>359777107002289</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>359998103190866</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>357655105059026</v>
       </c>
-      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
         <v>353515112099809</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3">
+        <v>352605111390084</v>
+      </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3">
+        <v>354500109226101</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -740,36 +847,43 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
       <c r="BM4" s="3"/>
-    </row>
-    <row r="5" spans="1:65">
+      <c r="BN4" s="3"/>
+    </row>
+    <row r="5" spans="1:66">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="C5" s="5">
+        <v>358444100822780</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>359152107940484</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>359777106940422</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>359998102939321</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>357655105939623</v>
       </c>
-      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>352605111416244</v>
+      </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3">
+        <v>354500109227240</v>
+      </c>
+      <c r="T5" s="8"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -815,18 +929,21 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
       <c r="BM5" s="3"/>
-    </row>
-    <row r="6" spans="1:65">
+      <c r="BN5" s="3"/>
+    </row>
+    <row r="6" spans="1:66">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="C6" s="5">
+        <v>358444100823226</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>359152107929180</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>359777107014904</v>
       </c>
-      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -837,10 +954,14 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>352605111248084</v>
+      </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="3">
+        <v>354500109226309</v>
+      </c>
+      <c r="T6" s="8"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -886,18 +1007,21 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
       <c r="BM6" s="3"/>
-    </row>
-    <row r="7" spans="1:65">
+      <c r="BN6" s="3"/>
+    </row>
+    <row r="7" spans="1:66">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="5">
+        <v>358444100821964</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>359152107938686</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>359777106966328</v>
       </c>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -908,10 +1032,14 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>352605111266433</v>
+      </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="3">
+        <v>354500109226408</v>
+      </c>
+      <c r="T7" s="8"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -957,18 +1085,21 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
-    </row>
-    <row r="8" spans="1:65">
+      <c r="BN7" s="3"/>
+    </row>
+    <row r="8" spans="1:66">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="5">
+        <v>358444100871043</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>359152107929164</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>359777106716806</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -979,10 +1110,14 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>352605111389029</v>
+      </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="3">
+        <v>354500109227224</v>
+      </c>
+      <c r="T8" s="7"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1028,18 +1163,21 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
-    </row>
-    <row r="9" spans="1:65">
+      <c r="BN8" s="3"/>
+    </row>
+    <row r="9" spans="1:66">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="C9" s="5">
+        <v>358444100853264</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>359152107929206</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>359777106940281</v>
       </c>
-      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1050,10 +1188,16 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3">
+        <v>352605111406849</v>
+      </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3">
+        <v>352605111946885</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1099,18 +1243,19 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
-    </row>
-    <row r="10" spans="1:65">
+      <c r="BN9" s="3"/>
+    </row>
+    <row r="10" spans="1:66">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>359152107940526</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>359777107014946</v>
       </c>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1121,10 +1266,14 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>352605111411542</v>
+      </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="3">
+        <v>352605111692109</v>
+      </c>
+      <c r="T10" s="8"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1170,18 +1319,19 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
-    </row>
-    <row r="11" spans="1:65">
+      <c r="BN10" s="3"/>
+    </row>
+    <row r="11" spans="1:66">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>359152107937688</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>359777106707029</v>
       </c>
-      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1192,10 +1342,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>352605110850906</v>
+      </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="3">
+        <v>352605111946943</v>
+      </c>
+      <c r="T11" s="8"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -1241,18 +1395,19 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
-    </row>
-    <row r="12" spans="1:65">
+      <c r="BN11" s="3"/>
+    </row>
+    <row r="12" spans="1:66">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>359152107940500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>359777106940406</v>
       </c>
-      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1263,10 +1418,14 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3">
+        <v>352605111414769</v>
+      </c>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="3">
+        <v>352605111984944</v>
+      </c>
+      <c r="T12" s="8"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -1312,18 +1471,19 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
-    </row>
-    <row r="13" spans="1:65">
+      <c r="BN12" s="3"/>
+    </row>
+    <row r="13" spans="1:66">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>359152107938728</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>359777106792542</v>
       </c>
-      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1334,10 +1494,14 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3">
+        <v>352605111212585</v>
+      </c>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="3">
+        <v>352605111714887</v>
+      </c>
+      <c r="T13" s="7"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1383,18 +1547,19 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
       <c r="BM13" s="3"/>
-    </row>
-    <row r="14" spans="1:65">
+      <c r="BN13" s="3"/>
+    </row>
+    <row r="14" spans="1:66">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>359152107936821</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>359777107002248</v>
       </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1405,10 +1570,16 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>352605111266409</v>
+      </c>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="3">
+        <v>359777105185862</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1454,18 +1625,19 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
       <c r="BM14" s="3"/>
-    </row>
-    <row r="15" spans="1:65">
+      <c r="BN14" s="3"/>
+    </row>
+    <row r="15" spans="1:66">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>359152107849941</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>359777106937626</v>
       </c>
-      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1476,10 +1648,14 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3">
+        <v>352605111414868</v>
+      </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="3">
+        <v>359777105189062</v>
+      </c>
+      <c r="T15" s="8"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1525,18 +1701,19 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
       <c r="BM15" s="3"/>
-    </row>
-    <row r="16" spans="1:65">
+      <c r="BN15" s="3"/>
+    </row>
+    <row r="16" spans="1:66">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>359152107938702</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>359777106966765</v>
       </c>
-      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1547,10 +1724,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3">
+        <v>352605111248142</v>
+      </c>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3">
+        <v>359777105187561</v>
+      </c>
+      <c r="T16" s="7"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1596,18 +1777,19 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
       <c r="BM16" s="3"/>
-    </row>
-    <row r="17" spans="1:65">
+      <c r="BN16" s="3"/>
+    </row>
+    <row r="17" spans="1:66">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>359152107936789</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>359777106739642</v>
       </c>
-      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1618,7 +1800,9 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3">
+        <v>352605111235149</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1667,18 +1851,19 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
       <c r="BM17" s="3"/>
-    </row>
-    <row r="18" spans="1:65">
+      <c r="BN17" s="3"/>
+    </row>
+    <row r="18" spans="1:66">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>359152108572922</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>359777107011629</v>
       </c>
-      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1689,7 +1874,9 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3">
+        <v>352605111389565</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1738,18 +1925,19 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
       <c r="BM18" s="3"/>
-    </row>
-    <row r="19" spans="1:65">
+      <c r="BN18" s="3"/>
+    </row>
+    <row r="19" spans="1:66">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>359152108573649</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>359777106967862</v>
       </c>
-      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1760,7 +1948,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3">
+        <v>352605111235164</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1809,18 +1999,19 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
       <c r="BM19" s="3"/>
-    </row>
-    <row r="20" spans="1:65">
+      <c r="BN19" s="3"/>
+    </row>
+    <row r="20" spans="1:66">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>359152108617743</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>359777106807803</v>
       </c>
-      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1831,7 +2022,9 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3">
+        <v>352605111411500</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1880,18 +2073,19 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
-    </row>
-    <row r="21" spans="1:65">
+      <c r="BN20" s="3"/>
+    </row>
+    <row r="21" spans="1:66">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>359152108573185</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>359777107008468</v>
       </c>
-      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1902,7 +2096,9 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3">
+        <v>352605111266441</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -1951,15 +2147,16 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
       <c r="BM21" s="3"/>
-    </row>
-    <row r="22" spans="1:65">
+      <c r="BN21" s="3"/>
+    </row>
+    <row r="22" spans="1:66">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>359152108573086</v>
       </c>
-      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2020,15 +2217,16 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
-    </row>
-    <row r="23" spans="1:65">
+      <c r="BN22" s="3"/>
+    </row>
+    <row r="23" spans="1:66">
       <c r="A23" s="3"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>359152107529881</v>
       </c>
-      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2089,15 +2287,16 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
       <c r="BM23" s="3"/>
-    </row>
-    <row r="24" spans="1:65">
+      <c r="BN23" s="3"/>
+    </row>
+    <row r="24" spans="1:66">
       <c r="A24" s="3"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>359152107530467</v>
       </c>
-      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2158,11 +2357,12 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
       <c r="BM24" s="3"/>
-    </row>
-    <row r="25" spans="1:65">
+      <c r="BN24" s="3"/>
+    </row>
+    <row r="25" spans="1:66">
       <c r="A25" s="3"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2225,11 +2425,12 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
       <c r="BM25" s="3"/>
-    </row>
-    <row r="26" spans="1:65">
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26" spans="1:66">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2292,11 +2493,12 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
       <c r="BM26" s="3"/>
-    </row>
-    <row r="27" spans="1:65">
+      <c r="BN26" s="3"/>
+    </row>
+    <row r="27" spans="1:66">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2359,11 +2561,12 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
-    </row>
-    <row r="28" spans="1:65">
+      <c r="BN27" s="3"/>
+    </row>
+    <row r="28" spans="1:66">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2426,11 +2629,12 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
       <c r="BM28" s="3"/>
-    </row>
-    <row r="29" spans="1:65">
+      <c r="BN28" s="3"/>
+    </row>
+    <row r="29" spans="1:66">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2493,11 +2697,12 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
-    </row>
-    <row r="30" spans="1:65">
+      <c r="BN29" s="3"/>
+    </row>
+    <row r="30" spans="1:66">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2560,11 +2765,12 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
       <c r="BM30" s="3"/>
-    </row>
-    <row r="31" spans="1:65">
+      <c r="BN30" s="3"/>
+    </row>
+    <row r="31" spans="1:66">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2627,11 +2833,12 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
       <c r="BM31" s="3"/>
-    </row>
-    <row r="32" spans="1:65">
+      <c r="BN31" s="3"/>
+    </row>
+    <row r="32" spans="1:66">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2694,11 +2901,12 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
       <c r="BM32" s="3"/>
-    </row>
-    <row r="33" spans="1:65">
+      <c r="BN32" s="3"/>
+    </row>
+    <row r="33" spans="1:66">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2761,11 +2969,12 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
       <c r="BM33" s="3"/>
-    </row>
-    <row r="34" spans="1:65">
+      <c r="BN33" s="3"/>
+    </row>
+    <row r="34" spans="1:66">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2828,11 +3037,12 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
       <c r="BM34" s="3"/>
-    </row>
-    <row r="35" spans="1:65">
+      <c r="BN34" s="3"/>
+    </row>
+    <row r="35" spans="1:66">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2895,11 +3105,12 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
       <c r="BM35" s="3"/>
-    </row>
-    <row r="36" spans="1:65">
+      <c r="BN35" s="3"/>
+    </row>
+    <row r="36" spans="1:66">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2962,11 +3173,12 @@
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
       <c r="BM36" s="3"/>
-    </row>
-    <row r="37" spans="1:65">
+      <c r="BN36" s="3"/>
+    </row>
+    <row r="37" spans="1:66">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3029,11 +3241,12 @@
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
       <c r="BM37" s="3"/>
-    </row>
-    <row r="38" spans="1:65">
+      <c r="BN37" s="3"/>
+    </row>
+    <row r="38" spans="1:66">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3096,11 +3309,12 @@
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
       <c r="BM38" s="3"/>
-    </row>
-    <row r="39" spans="1:65">
+      <c r="BN38" s="3"/>
+    </row>
+    <row r="39" spans="1:66">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3163,11 +3377,12 @@
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
       <c r="BM39" s="3"/>
-    </row>
-    <row r="40" spans="1:65">
+      <c r="BN39" s="3"/>
+    </row>
+    <row r="40" spans="1:66">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3230,11 +3445,12 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
       <c r="BM40" s="3"/>
-    </row>
-    <row r="41" spans="1:65">
+      <c r="BN40" s="3"/>
+    </row>
+    <row r="41" spans="1:66">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3297,11 +3513,12 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
       <c r="BM41" s="3"/>
-    </row>
-    <row r="42" spans="1:65">
+      <c r="BN41" s="3"/>
+    </row>
+    <row r="42" spans="1:66">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3364,8 +3581,9 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
       <c r="BM42" s="3"/>
-    </row>
-    <row r="43" spans="1:65">
+      <c r="BN42" s="3"/>
+    </row>
+    <row r="43" spans="1:66">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3431,8 +3649,9 @@
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
       <c r="BM43" s="3"/>
-    </row>
-    <row r="44" spans="1:65">
+      <c r="BN43" s="3"/>
+    </row>
+    <row r="44" spans="1:66">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3498,8 +3717,9 @@
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
       <c r="BM44" s="3"/>
-    </row>
-    <row r="45" spans="1:65">
+      <c r="BN44" s="3"/>
+    </row>
+    <row r="45" spans="1:66">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3565,8 +3785,9 @@
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
       <c r="BM45" s="3"/>
-    </row>
-    <row r="46" spans="1:65">
+      <c r="BN45" s="3"/>
+    </row>
+    <row r="46" spans="1:66">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3632,8 +3853,9 @@
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
       <c r="BM46" s="3"/>
-    </row>
-    <row r="47" spans="1:65">
+      <c r="BN46" s="3"/>
+    </row>
+    <row r="47" spans="1:66">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3699,8 +3921,9 @@
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
       <c r="BM47" s="3"/>
-    </row>
-    <row r="48" spans="1:65">
+      <c r="BN47" s="3"/>
+    </row>
+    <row r="48" spans="1:66">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3766,8 +3989,9 @@
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
-    </row>
-    <row r="49" spans="1:65">
+      <c r="BN48" s="3"/>
+    </row>
+    <row r="49" spans="1:66">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3833,8 +4057,9 @@
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
       <c r="BM49" s="3"/>
-    </row>
-    <row r="50" spans="1:65">
+      <c r="BN49" s="3"/>
+    </row>
+    <row r="50" spans="1:66">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3900,8 +4125,9 @@
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
       <c r="BM50" s="3"/>
-    </row>
-    <row r="51" spans="1:65">
+      <c r="BN50" s="3"/>
+    </row>
+    <row r="51" spans="1:66">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3967,8 +4193,9 @@
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
       <c r="BM51" s="3"/>
-    </row>
-    <row r="52" spans="1:65">
+      <c r="BN51" s="3"/>
+    </row>
+    <row r="52" spans="1:66">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4034,8 +4261,9 @@
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
       <c r="BM52" s="3"/>
-    </row>
-    <row r="53" spans="1:65">
+      <c r="BN52" s="3"/>
+    </row>
+    <row r="53" spans="1:66">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4101,8 +4329,9 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
       <c r="BM53" s="3"/>
-    </row>
-    <row r="54" spans="1:65">
+      <c r="BN53" s="3"/>
+    </row>
+    <row r="54" spans="1:66">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4168,8 +4397,9 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
       <c r="BM54" s="3"/>
-    </row>
-    <row r="55" spans="1:65">
+      <c r="BN54" s="3"/>
+    </row>
+    <row r="55" spans="1:66">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4235,8 +4465,9 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
       <c r="BM55" s="3"/>
-    </row>
-    <row r="56" spans="1:65">
+      <c r="BN55" s="3"/>
+    </row>
+    <row r="56" spans="1:66">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4302,8 +4533,9 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
       <c r="BM56" s="3"/>
-    </row>
-    <row r="57" spans="1:65">
+      <c r="BN56" s="3"/>
+    </row>
+    <row r="57" spans="1:66">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4369,8 +4601,9 @@
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
       <c r="BM57" s="3"/>
-    </row>
-    <row r="58" spans="1:65">
+      <c r="BN57" s="3"/>
+    </row>
+    <row r="58" spans="1:66">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4436,8 +4669,9 @@
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
       <c r="BM58" s="3"/>
-    </row>
-    <row r="59" spans="1:65">
+      <c r="BN58" s="3"/>
+    </row>
+    <row r="59" spans="1:66">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4503,8 +4737,9 @@
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
       <c r="BM59" s="3"/>
-    </row>
-    <row r="60" spans="1:65">
+      <c r="BN59" s="3"/>
+    </row>
+    <row r="60" spans="1:66">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4570,8 +4805,9 @@
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
       <c r="BM60" s="3"/>
-    </row>
-    <row r="61" spans="1:65">
+      <c r="BN60" s="3"/>
+    </row>
+    <row r="61" spans="1:66">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4637,8 +4873,9 @@
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
       <c r="BM61" s="3"/>
-    </row>
-    <row r="62" spans="1:65">
+      <c r="BN61" s="3"/>
+    </row>
+    <row r="62" spans="1:66">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4704,8 +4941,9 @@
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
       <c r="BM62" s="3"/>
-    </row>
-    <row r="63" spans="1:65">
+      <c r="BN62" s="3"/>
+    </row>
+    <row r="63" spans="1:66">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4771,8 +5009,9 @@
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
       <c r="BM63" s="3"/>
-    </row>
-    <row r="64" spans="1:65">
+      <c r="BN63" s="3"/>
+    </row>
+    <row r="64" spans="1:66">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4838,8 +5077,9 @@
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
       <c r="BM64" s="3"/>
-    </row>
-    <row r="65" spans="1:65">
+      <c r="BN64" s="3"/>
+    </row>
+    <row r="65" spans="1:66">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4905,8 +5145,9 @@
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
       <c r="BM65" s="3"/>
-    </row>
-    <row r="66" spans="1:65">
+      <c r="BN65" s="3"/>
+    </row>
+    <row r="66" spans="1:66">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4972,8 +5213,9 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="3"/>
       <c r="BM66" s="3"/>
-    </row>
-    <row r="67" spans="1:65">
+      <c r="BN66" s="3"/>
+    </row>
+    <row r="67" spans="1:66">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5039,8 +5281,9 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
       <c r="BM67" s="3"/>
-    </row>
-    <row r="68" spans="1:65">
+      <c r="BN67" s="3"/>
+    </row>
+    <row r="68" spans="1:66">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5106,8 +5349,9 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
       <c r="BM68" s="3"/>
-    </row>
-    <row r="69" spans="1:65">
+      <c r="BN68" s="3"/>
+    </row>
+    <row r="69" spans="1:66">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5173,8 +5417,9 @@
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
       <c r="BM69" s="3"/>
-    </row>
-    <row r="70" spans="1:65">
+      <c r="BN69" s="3"/>
+    </row>
+    <row r="70" spans="1:66">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5240,8 +5485,9 @@
       <c r="BK70" s="3"/>
       <c r="BL70" s="3"/>
       <c r="BM70" s="3"/>
-    </row>
-    <row r="71" spans="1:65">
+      <c r="BN70" s="3"/>
+    </row>
+    <row r="71" spans="1:66">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5307,8 +5553,9 @@
       <c r="BK71" s="3"/>
       <c r="BL71" s="3"/>
       <c r="BM71" s="3"/>
-    </row>
-    <row r="72" spans="1:65">
+      <c r="BN71" s="3"/>
+    </row>
+    <row r="72" spans="1:66">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5374,8 +5621,9 @@
       <c r="BK72" s="3"/>
       <c r="BL72" s="3"/>
       <c r="BM72" s="3"/>
-    </row>
-    <row r="73" spans="1:65">
+      <c r="BN72" s="3"/>
+    </row>
+    <row r="73" spans="1:66">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5441,8 +5689,9 @@
       <c r="BK73" s="3"/>
       <c r="BL73" s="3"/>
       <c r="BM73" s="3"/>
-    </row>
-    <row r="74" spans="1:65">
+      <c r="BN73" s="3"/>
+    </row>
+    <row r="74" spans="1:66">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5508,8 +5757,9 @@
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
       <c r="BM74" s="3"/>
-    </row>
-    <row r="75" spans="1:65">
+      <c r="BN74" s="3"/>
+    </row>
+    <row r="75" spans="1:66">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5575,8 +5825,9 @@
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
       <c r="BM75" s="3"/>
-    </row>
-    <row r="76" spans="1:65">
+      <c r="BN75" s="3"/>
+    </row>
+    <row r="76" spans="1:66">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5642,8 +5893,9 @@
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
       <c r="BM76" s="3"/>
-    </row>
-    <row r="77" spans="1:65">
+      <c r="BN76" s="3"/>
+    </row>
+    <row r="77" spans="1:66">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5709,8 +5961,9 @@
       <c r="BK77" s="3"/>
       <c r="BL77" s="3"/>
       <c r="BM77" s="3"/>
-    </row>
-    <row r="78" spans="1:65">
+      <c r="BN77" s="3"/>
+    </row>
+    <row r="78" spans="1:66">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5776,8 +6029,9 @@
       <c r="BK78" s="3"/>
       <c r="BL78" s="3"/>
       <c r="BM78" s="3"/>
-    </row>
-    <row r="79" spans="1:65">
+      <c r="BN78" s="3"/>
+    </row>
+    <row r="79" spans="1:66">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5843,8 +6097,9 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="3"/>
       <c r="BM79" s="3"/>
-    </row>
-    <row r="80" spans="1:65">
+      <c r="BN79" s="3"/>
+    </row>
+    <row r="80" spans="1:66">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5910,8 +6165,9 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="3"/>
       <c r="BM80" s="3"/>
-    </row>
-    <row r="81" spans="1:65">
+      <c r="BN80" s="3"/>
+    </row>
+    <row r="81" spans="1:66">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5977,8 +6233,9 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="3"/>
       <c r="BM81" s="3"/>
-    </row>
-    <row r="82" spans="1:65">
+      <c r="BN81" s="3"/>
+    </row>
+    <row r="82" spans="1:66">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6044,8 +6301,9 @@
       <c r="BK82" s="3"/>
       <c r="BL82" s="3"/>
       <c r="BM82" s="3"/>
-    </row>
-    <row r="83" spans="1:65">
+      <c r="BN82" s="3"/>
+    </row>
+    <row r="83" spans="1:66">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6111,8 +6369,9 @@
       <c r="BK83" s="3"/>
       <c r="BL83" s="3"/>
       <c r="BM83" s="3"/>
-    </row>
-    <row r="84" spans="1:65">
+      <c r="BN83" s="3"/>
+    </row>
+    <row r="84" spans="1:66">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6178,8 +6437,9 @@
       <c r="BK84" s="3"/>
       <c r="BL84" s="3"/>
       <c r="BM84" s="3"/>
-    </row>
-    <row r="85" spans="1:65">
+      <c r="BN84" s="3"/>
+    </row>
+    <row r="85" spans="1:66">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6245,8 +6505,9 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
       <c r="BM85" s="3"/>
-    </row>
-    <row r="86" spans="1:65">
+      <c r="BN85" s="3"/>
+    </row>
+    <row r="86" spans="1:66">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -6312,8 +6573,9 @@
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
       <c r="BM86" s="3"/>
-    </row>
-    <row r="87" spans="1:65">
+      <c r="BN86" s="3"/>
+    </row>
+    <row r="87" spans="1:66">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6379,8 +6641,9 @@
       <c r="BK87" s="3"/>
       <c r="BL87" s="3"/>
       <c r="BM87" s="3"/>
-    </row>
-    <row r="88" spans="1:65">
+      <c r="BN87" s="3"/>
+    </row>
+    <row r="88" spans="1:66">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6446,8 +6709,9 @@
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
       <c r="BM88" s="3"/>
-    </row>
-    <row r="89" spans="1:65">
+      <c r="BN88" s="3"/>
+    </row>
+    <row r="89" spans="1:66">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6513,8 +6777,9 @@
       <c r="BK89" s="3"/>
       <c r="BL89" s="3"/>
       <c r="BM89" s="3"/>
-    </row>
-    <row r="90" spans="1:65">
+      <c r="BN89" s="3"/>
+    </row>
+    <row r="90" spans="1:66">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6580,8 +6845,9 @@
       <c r="BK90" s="3"/>
       <c r="BL90" s="3"/>
       <c r="BM90" s="3"/>
-    </row>
-    <row r="91" spans="1:65">
+      <c r="BN90" s="3"/>
+    </row>
+    <row r="91" spans="1:66">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6647,8 +6913,9 @@
       <c r="BK91" s="3"/>
       <c r="BL91" s="3"/>
       <c r="BM91" s="3"/>
-    </row>
-    <row r="92" spans="1:65">
+      <c r="BN91" s="3"/>
+    </row>
+    <row r="92" spans="1:66">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6714,8 +6981,9 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="3"/>
       <c r="BM92" s="3"/>
-    </row>
-    <row r="93" spans="1:65">
+      <c r="BN92" s="3"/>
+    </row>
+    <row r="93" spans="1:66">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6781,8 +7049,9 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
       <c r="BM93" s="3"/>
-    </row>
-    <row r="94" spans="1:65">
+      <c r="BN93" s="3"/>
+    </row>
+    <row r="94" spans="1:66">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6848,8 +7117,9 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
       <c r="BM94" s="3"/>
-    </row>
-    <row r="95" spans="1:65">
+      <c r="BN94" s="3"/>
+    </row>
+    <row r="95" spans="1:66">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6915,8 +7185,9 @@
       <c r="BK95" s="3"/>
       <c r="BL95" s="3"/>
       <c r="BM95" s="3"/>
-    </row>
-    <row r="96" spans="1:65">
+      <c r="BN95" s="3"/>
+    </row>
+    <row r="96" spans="1:66">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6982,8 +7253,9 @@
       <c r="BK96" s="3"/>
       <c r="BL96" s="3"/>
       <c r="BM96" s="3"/>
-    </row>
-    <row r="97" spans="1:65">
+      <c r="BN96" s="3"/>
+    </row>
+    <row r="97" spans="1:66">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7049,8 +7321,9 @@
       <c r="BK97" s="3"/>
       <c r="BL97" s="3"/>
       <c r="BM97" s="3"/>
-    </row>
-    <row r="98" spans="1:65">
+      <c r="BN97" s="3"/>
+    </row>
+    <row r="98" spans="1:66">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -7116,8 +7389,9 @@
       <c r="BK98" s="3"/>
       <c r="BL98" s="3"/>
       <c r="BM98" s="3"/>
-    </row>
-    <row r="99" spans="1:65">
+      <c r="BN98" s="3"/>
+    </row>
+    <row r="99" spans="1:66">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7183,8 +7457,9 @@
       <c r="BK99" s="3"/>
       <c r="BL99" s="3"/>
       <c r="BM99" s="3"/>
-    </row>
-    <row r="100" spans="1:65">
+      <c r="BN99" s="3"/>
+    </row>
+    <row r="100" spans="1:66">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -7250,8 +7525,9 @@
       <c r="BK100" s="3"/>
       <c r="BL100" s="3"/>
       <c r="BM100" s="3"/>
-    </row>
-    <row r="101" spans="1:65">
+      <c r="BN100" s="3"/>
+    </row>
+    <row r="101" spans="1:66">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -7317,8 +7593,9 @@
       <c r="BK101" s="3"/>
       <c r="BL101" s="3"/>
       <c r="BM101" s="3"/>
-    </row>
-    <row r="102" spans="1:65">
+      <c r="BN101" s="3"/>
+    </row>
+    <row r="102" spans="1:66">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -7384,8 +7661,9 @@
       <c r="BK102" s="3"/>
       <c r="BL102" s="3"/>
       <c r="BM102" s="3"/>
-    </row>
-    <row r="103" spans="1:65">
+      <c r="BN102" s="3"/>
+    </row>
+    <row r="103" spans="1:66">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7451,8 +7729,9 @@
       <c r="BK103" s="3"/>
       <c r="BL103" s="3"/>
       <c r="BM103" s="3"/>
-    </row>
-    <row r="104" spans="1:65">
+      <c r="BN103" s="3"/>
+    </row>
+    <row r="104" spans="1:66">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -7518,8 +7797,9 @@
       <c r="BK104" s="3"/>
       <c r="BL104" s="3"/>
       <c r="BM104" s="3"/>
-    </row>
-    <row r="105" spans="1:65">
+      <c r="BN104" s="3"/>
+    </row>
+    <row r="105" spans="1:66">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -7585,8 +7865,9 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="3"/>
       <c r="BM105" s="3"/>
-    </row>
-    <row r="106" spans="1:65">
+      <c r="BN105" s="3"/>
+    </row>
+    <row r="106" spans="1:66">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7652,8 +7933,9 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="3"/>
       <c r="BM106" s="3"/>
-    </row>
-    <row r="107" spans="1:65">
+      <c r="BN106" s="3"/>
+    </row>
+    <row r="107" spans="1:66">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -7719,8 +8001,9 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="3"/>
       <c r="BM107" s="3"/>
-    </row>
-    <row r="108" spans="1:65">
+      <c r="BN107" s="3"/>
+    </row>
+    <row r="108" spans="1:66">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -7786,8 +8069,9 @@
       <c r="BK108" s="3"/>
       <c r="BL108" s="3"/>
       <c r="BM108" s="3"/>
-    </row>
-    <row r="109" spans="1:65">
+      <c r="BN108" s="3"/>
+    </row>
+    <row r="109" spans="1:66">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -7853,8 +8137,9 @@
       <c r="BK109" s="3"/>
       <c r="BL109" s="3"/>
       <c r="BM109" s="3"/>
-    </row>
-    <row r="110" spans="1:65">
+      <c r="BN109" s="3"/>
+    </row>
+    <row r="110" spans="1:66">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7920,8 +8205,9 @@
       <c r="BK110" s="3"/>
       <c r="BL110" s="3"/>
       <c r="BM110" s="3"/>
-    </row>
-    <row r="111" spans="1:65">
+      <c r="BN110" s="3"/>
+    </row>
+    <row r="111" spans="1:66">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -7987,8 +8273,9 @@
       <c r="BK111" s="3"/>
       <c r="BL111" s="3"/>
       <c r="BM111" s="3"/>
-    </row>
-    <row r="112" spans="1:65">
+      <c r="BN111" s="3"/>
+    </row>
+    <row r="112" spans="1:66">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -8054,8 +8341,9 @@
       <c r="BK112" s="3"/>
       <c r="BL112" s="3"/>
       <c r="BM112" s="3"/>
-    </row>
-    <row r="113" spans="1:65">
+      <c r="BN112" s="3"/>
+    </row>
+    <row r="113" spans="1:66">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -8121,8 +8409,9 @@
       <c r="BK113" s="3"/>
       <c r="BL113" s="3"/>
       <c r="BM113" s="3"/>
-    </row>
-    <row r="114" spans="1:65">
+      <c r="BN113" s="3"/>
+    </row>
+    <row r="114" spans="1:66">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -8188,8 +8477,9 @@
       <c r="BK114" s="3"/>
       <c r="BL114" s="3"/>
       <c r="BM114" s="3"/>
-    </row>
-    <row r="115" spans="1:65">
+      <c r="BN114" s="3"/>
+    </row>
+    <row r="115" spans="1:66">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -8255,8 +8545,9 @@
       <c r="BK115" s="3"/>
       <c r="BL115" s="3"/>
       <c r="BM115" s="3"/>
-    </row>
-    <row r="116" spans="1:65">
+      <c r="BN115" s="3"/>
+    </row>
+    <row r="116" spans="1:66">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -8322,8 +8613,9 @@
       <c r="BK116" s="3"/>
       <c r="BL116" s="3"/>
       <c r="BM116" s="3"/>
-    </row>
-    <row r="117" spans="1:65">
+      <c r="BN116" s="3"/>
+    </row>
+    <row r="117" spans="1:66">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -8389,8 +8681,9 @@
       <c r="BK117" s="3"/>
       <c r="BL117" s="3"/>
       <c r="BM117" s="3"/>
-    </row>
-    <row r="118" spans="1:65">
+      <c r="BN117" s="3"/>
+    </row>
+    <row r="118" spans="1:66">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -8456,8 +8749,9 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="3"/>
       <c r="BM118" s="3"/>
-    </row>
-    <row r="119" spans="1:65">
+      <c r="BN118" s="3"/>
+    </row>
+    <row r="119" spans="1:66">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -8523,8 +8817,9 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="3"/>
       <c r="BM119" s="3"/>
-    </row>
-    <row r="120" spans="1:65">
+      <c r="BN119" s="3"/>
+    </row>
+    <row r="120" spans="1:66">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -8590,8 +8885,9 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="3"/>
       <c r="BM120" s="3"/>
-    </row>
-    <row r="121" spans="1:65">
+      <c r="BN120" s="3"/>
+    </row>
+    <row r="121" spans="1:66">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -8657,8 +8953,9 @@
       <c r="BK121" s="3"/>
       <c r="BL121" s="3"/>
       <c r="BM121" s="3"/>
-    </row>
-    <row r="122" spans="1:65">
+      <c r="BN121" s="3"/>
+    </row>
+    <row r="122" spans="1:66">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -8724,8 +9021,9 @@
       <c r="BK122" s="3"/>
       <c r="BL122" s="3"/>
       <c r="BM122" s="3"/>
-    </row>
-    <row r="123" spans="1:65">
+      <c r="BN122" s="3"/>
+    </row>
+    <row r="123" spans="1:66">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -8791,8 +9089,9 @@
       <c r="BK123" s="3"/>
       <c r="BL123" s="3"/>
       <c r="BM123" s="3"/>
-    </row>
-    <row r="124" spans="1:65">
+      <c r="BN123" s="3"/>
+    </row>
+    <row r="124" spans="1:66">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -8858,8 +9157,9 @@
       <c r="BK124" s="3"/>
       <c r="BL124" s="3"/>
       <c r="BM124" s="3"/>
-    </row>
-    <row r="125" spans="1:65">
+      <c r="BN124" s="3"/>
+    </row>
+    <row r="125" spans="1:66">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -8925,8 +9225,9 @@
       <c r="BK125" s="3"/>
       <c r="BL125" s="3"/>
       <c r="BM125" s="3"/>
-    </row>
-    <row r="126" spans="1:65">
+      <c r="BN125" s="3"/>
+    </row>
+    <row r="126" spans="1:66">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -8992,8 +9293,9 @@
       <c r="BK126" s="3"/>
       <c r="BL126" s="3"/>
       <c r="BM126" s="3"/>
-    </row>
-    <row r="127" spans="1:65">
+      <c r="BN126" s="3"/>
+    </row>
+    <row r="127" spans="1:66">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -9059,8 +9361,9 @@
       <c r="BK127" s="3"/>
       <c r="BL127" s="3"/>
       <c r="BM127" s="3"/>
-    </row>
-    <row r="128" spans="1:65">
+      <c r="BN127" s="3"/>
+    </row>
+    <row r="128" spans="1:66">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -9126,8 +9429,9 @@
       <c r="BK128" s="3"/>
       <c r="BL128" s="3"/>
       <c r="BM128" s="3"/>
-    </row>
-    <row r="129" spans="1:65">
+      <c r="BN128" s="3"/>
+    </row>
+    <row r="129" spans="1:66">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -9193,8 +9497,9 @@
       <c r="BK129" s="3"/>
       <c r="BL129" s="3"/>
       <c r="BM129" s="3"/>
-    </row>
-    <row r="130" spans="1:65">
+      <c r="BN129" s="3"/>
+    </row>
+    <row r="130" spans="1:66">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -9260,8 +9565,9 @@
       <c r="BK130" s="3"/>
       <c r="BL130" s="3"/>
       <c r="BM130" s="3"/>
-    </row>
-    <row r="131" spans="1:65">
+      <c r="BN130" s="3"/>
+    </row>
+    <row r="131" spans="1:66">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -9327,8 +9633,9 @@
       <c r="BK131" s="3"/>
       <c r="BL131" s="3"/>
       <c r="BM131" s="3"/>
-    </row>
-    <row r="132" spans="1:65">
+      <c r="BN131" s="3"/>
+    </row>
+    <row r="132" spans="1:66">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -9394,8 +9701,9 @@
       <c r="BK132" s="3"/>
       <c r="BL132" s="3"/>
       <c r="BM132" s="3"/>
-    </row>
-    <row r="133" spans="1:65">
+      <c r="BN132" s="3"/>
+    </row>
+    <row r="133" spans="1:66">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -9461,8 +9769,9 @@
       <c r="BK133" s="3"/>
       <c r="BL133" s="3"/>
       <c r="BM133" s="3"/>
-    </row>
-    <row r="134" spans="1:65">
+      <c r="BN133" s="3"/>
+    </row>
+    <row r="134" spans="1:66">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -9528,8 +9837,9 @@
       <c r="BK134" s="3"/>
       <c r="BL134" s="3"/>
       <c r="BM134" s="3"/>
-    </row>
-    <row r="135" spans="1:65">
+      <c r="BN134" s="3"/>
+    </row>
+    <row r="135" spans="1:66">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -9595,8 +9905,9 @@
       <c r="BK135" s="3"/>
       <c r="BL135" s="3"/>
       <c r="BM135" s="3"/>
-    </row>
-    <row r="136" spans="1:65">
+      <c r="BN135" s="3"/>
+    </row>
+    <row r="136" spans="1:66">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -9662,8 +9973,9 @@
       <c r="BK136" s="3"/>
       <c r="BL136" s="3"/>
       <c r="BM136" s="3"/>
-    </row>
-    <row r="137" spans="1:65">
+      <c r="BN136" s="3"/>
+    </row>
+    <row r="137" spans="1:66">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -9729,8 +10041,9 @@
       <c r="BK137" s="3"/>
       <c r="BL137" s="3"/>
       <c r="BM137" s="3"/>
-    </row>
-    <row r="138" spans="1:65">
+      <c r="BN137" s="3"/>
+    </row>
+    <row r="138" spans="1:66">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -9796,8 +10109,9 @@
       <c r="BK138" s="3"/>
       <c r="BL138" s="3"/>
       <c r="BM138" s="3"/>
-    </row>
-    <row r="139" spans="1:65">
+      <c r="BN138" s="3"/>
+    </row>
+    <row r="139" spans="1:66">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -9863,8 +10177,9 @@
       <c r="BK139" s="3"/>
       <c r="BL139" s="3"/>
       <c r="BM139" s="3"/>
-    </row>
-    <row r="140" spans="1:65">
+      <c r="BN139" s="3"/>
+    </row>
+    <row r="140" spans="1:66">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -9930,8 +10245,9 @@
       <c r="BK140" s="3"/>
       <c r="BL140" s="3"/>
       <c r="BM140" s="3"/>
-    </row>
-    <row r="141" spans="1:65">
+      <c r="BN140" s="3"/>
+    </row>
+    <row r="141" spans="1:66">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -9997,8 +10313,9 @@
       <c r="BK141" s="3"/>
       <c r="BL141" s="3"/>
       <c r="BM141" s="3"/>
-    </row>
-    <row r="142" spans="1:65">
+      <c r="BN141" s="3"/>
+    </row>
+    <row r="142" spans="1:66">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -10064,8 +10381,9 @@
       <c r="BK142" s="3"/>
       <c r="BL142" s="3"/>
       <c r="BM142" s="3"/>
-    </row>
-    <row r="143" spans="1:65">
+      <c r="BN142" s="3"/>
+    </row>
+    <row r="143" spans="1:66">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -10131,8 +10449,9 @@
       <c r="BK143" s="3"/>
       <c r="BL143" s="3"/>
       <c r="BM143" s="3"/>
-    </row>
-    <row r="144" spans="1:65">
+      <c r="BN143" s="3"/>
+    </row>
+    <row r="144" spans="1:66">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -10198,8 +10517,9 @@
       <c r="BK144" s="3"/>
       <c r="BL144" s="3"/>
       <c r="BM144" s="3"/>
-    </row>
-    <row r="145" spans="1:65">
+      <c r="BN144" s="3"/>
+    </row>
+    <row r="145" spans="1:66">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -10265,8 +10585,9 @@
       <c r="BK145" s="3"/>
       <c r="BL145" s="3"/>
       <c r="BM145" s="3"/>
-    </row>
-    <row r="146" spans="1:65">
+      <c r="BN145" s="3"/>
+    </row>
+    <row r="146" spans="1:66">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -10332,8 +10653,9 @@
       <c r="BK146" s="3"/>
       <c r="BL146" s="3"/>
       <c r="BM146" s="3"/>
-    </row>
-    <row r="147" spans="1:65">
+      <c r="BN146" s="3"/>
+    </row>
+    <row r="147" spans="1:66">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -10399,8 +10721,9 @@
       <c r="BK147" s="3"/>
       <c r="BL147" s="3"/>
       <c r="BM147" s="3"/>
-    </row>
-    <row r="148" spans="1:65">
+      <c r="BN147" s="3"/>
+    </row>
+    <row r="148" spans="1:66">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -10466,8 +10789,9 @@
       <c r="BK148" s="3"/>
       <c r="BL148" s="3"/>
       <c r="BM148" s="3"/>
-    </row>
-    <row r="149" spans="1:65">
+      <c r="BN148" s="3"/>
+    </row>
+    <row r="149" spans="1:66">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -10533,8 +10857,9 @@
       <c r="BK149" s="3"/>
       <c r="BL149" s="3"/>
       <c r="BM149" s="3"/>
-    </row>
-    <row r="150" spans="1:65">
+      <c r="BN149" s="3"/>
+    </row>
+    <row r="150" spans="1:66">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -10600,8 +10925,9 @@
       <c r="BK150" s="3"/>
       <c r="BL150" s="3"/>
       <c r="BM150" s="3"/>
-    </row>
-    <row r="151" spans="1:65">
+      <c r="BN150" s="3"/>
+    </row>
+    <row r="151" spans="1:66">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -10667,8 +10993,9 @@
       <c r="BK151" s="3"/>
       <c r="BL151" s="3"/>
       <c r="BM151" s="3"/>
-    </row>
-    <row r="152" spans="1:65">
+      <c r="BN151" s="3"/>
+    </row>
+    <row r="152" spans="1:66">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -10734,8 +11061,9 @@
       <c r="BK152" s="3"/>
       <c r="BL152" s="3"/>
       <c r="BM152" s="3"/>
-    </row>
-    <row r="153" spans="1:65">
+      <c r="BN152" s="3"/>
+    </row>
+    <row r="153" spans="1:66">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -10801,8 +11129,9 @@
       <c r="BK153" s="3"/>
       <c r="BL153" s="3"/>
       <c r="BM153" s="3"/>
-    </row>
-    <row r="154" spans="1:65">
+      <c r="BN153" s="3"/>
+    </row>
+    <row r="154" spans="1:66">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -10868,8 +11197,9 @@
       <c r="BK154" s="3"/>
       <c r="BL154" s="3"/>
       <c r="BM154" s="3"/>
-    </row>
-    <row r="155" spans="1:65">
+      <c r="BN154" s="3"/>
+    </row>
+    <row r="155" spans="1:66">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -10935,8 +11265,9 @@
       <c r="BK155" s="3"/>
       <c r="BL155" s="3"/>
       <c r="BM155" s="3"/>
-    </row>
-    <row r="156" spans="1:65">
+      <c r="BN155" s="3"/>
+    </row>
+    <row r="156" spans="1:66">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -11002,8 +11333,9 @@
       <c r="BK156" s="3"/>
       <c r="BL156" s="3"/>
       <c r="BM156" s="3"/>
-    </row>
-    <row r="157" spans="1:65">
+      <c r="BN156" s="3"/>
+    </row>
+    <row r="157" spans="1:66">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -11069,8 +11401,9 @@
       <c r="BK157" s="3"/>
       <c r="BL157" s="3"/>
       <c r="BM157" s="3"/>
-    </row>
-    <row r="158" spans="1:65">
+      <c r="BN157" s="3"/>
+    </row>
+    <row r="158" spans="1:66">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -11136,8 +11469,9 @@
       <c r="BK158" s="3"/>
       <c r="BL158" s="3"/>
       <c r="BM158" s="3"/>
-    </row>
-    <row r="159" spans="1:65">
+      <c r="BN158" s="3"/>
+    </row>
+    <row r="159" spans="1:66">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -11203,8 +11537,9 @@
       <c r="BK159" s="3"/>
       <c r="BL159" s="3"/>
       <c r="BM159" s="3"/>
-    </row>
-    <row r="160" spans="1:65">
+      <c r="BN159" s="3"/>
+    </row>
+    <row r="160" spans="1:66">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -11270,8 +11605,9 @@
       <c r="BK160" s="3"/>
       <c r="BL160" s="3"/>
       <c r="BM160" s="3"/>
-    </row>
-    <row r="161" spans="1:65">
+      <c r="BN160" s="3"/>
+    </row>
+    <row r="161" spans="1:66">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -11337,8 +11673,9 @@
       <c r="BK161" s="3"/>
       <c r="BL161" s="3"/>
       <c r="BM161" s="3"/>
-    </row>
-    <row r="162" spans="1:65">
+      <c r="BN161" s="3"/>
+    </row>
+    <row r="162" spans="1:66">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -11404,8 +11741,9 @@
       <c r="BK162" s="3"/>
       <c r="BL162" s="3"/>
       <c r="BM162" s="3"/>
-    </row>
-    <row r="163" spans="1:65">
+      <c r="BN162" s="3"/>
+    </row>
+    <row r="163" spans="1:66">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -11471,8 +11809,9 @@
       <c r="BK163" s="3"/>
       <c r="BL163" s="3"/>
       <c r="BM163" s="3"/>
-    </row>
-    <row r="164" spans="1:65">
+      <c r="BN163" s="3"/>
+    </row>
+    <row r="164" spans="1:66">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -11538,8 +11877,9 @@
       <c r="BK164" s="3"/>
       <c r="BL164" s="3"/>
       <c r="BM164" s="3"/>
-    </row>
-    <row r="165" spans="1:65">
+      <c r="BN164" s="3"/>
+    </row>
+    <row r="165" spans="1:66">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -11605,8 +11945,9 @@
       <c r="BK165" s="3"/>
       <c r="BL165" s="3"/>
       <c r="BM165" s="3"/>
-    </row>
-    <row r="166" spans="1:65">
+      <c r="BN165" s="3"/>
+    </row>
+    <row r="166" spans="1:66">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -11672,8 +12013,9 @@
       <c r="BK166" s="3"/>
       <c r="BL166" s="3"/>
       <c r="BM166" s="3"/>
-    </row>
-    <row r="167" spans="1:65">
+      <c r="BN166" s="3"/>
+    </row>
+    <row r="167" spans="1:66">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -11739,8 +12081,9 @@
       <c r="BK167" s="3"/>
       <c r="BL167" s="3"/>
       <c r="BM167" s="3"/>
-    </row>
-    <row r="168" spans="1:65">
+      <c r="BN167" s="3"/>
+    </row>
+    <row r="168" spans="1:66">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -11806,8 +12149,9 @@
       <c r="BK168" s="3"/>
       <c r="BL168" s="3"/>
       <c r="BM168" s="3"/>
-    </row>
-    <row r="169" spans="1:65">
+      <c r="BN168" s="3"/>
+    </row>
+    <row r="169" spans="1:66">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -11873,8 +12217,9 @@
       <c r="BK169" s="3"/>
       <c r="BL169" s="3"/>
       <c r="BM169" s="3"/>
-    </row>
-    <row r="170" spans="1:65">
+      <c r="BN169" s="3"/>
+    </row>
+    <row r="170" spans="1:66">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -11940,8 +12285,9 @@
       <c r="BK170" s="3"/>
       <c r="BL170" s="3"/>
       <c r="BM170" s="3"/>
-    </row>
-    <row r="171" spans="1:65">
+      <c r="BN170" s="3"/>
+    </row>
+    <row r="171" spans="1:66">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -12007,8 +12353,9 @@
       <c r="BK171" s="3"/>
       <c r="BL171" s="3"/>
       <c r="BM171" s="3"/>
-    </row>
-    <row r="172" spans="1:65">
+      <c r="BN171" s="3"/>
+    </row>
+    <row r="172" spans="1:66">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -12074,8 +12421,9 @@
       <c r="BK172" s="3"/>
       <c r="BL172" s="3"/>
       <c r="BM172" s="3"/>
-    </row>
-    <row r="173" spans="1:65">
+      <c r="BN172" s="3"/>
+    </row>
+    <row r="173" spans="1:66">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -12141,8 +12489,9 @@
       <c r="BK173" s="3"/>
       <c r="BL173" s="3"/>
       <c r="BM173" s="3"/>
-    </row>
-    <row r="174" spans="1:65">
+      <c r="BN173" s="3"/>
+    </row>
+    <row r="174" spans="1:66">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -12208,8 +12557,9 @@
       <c r="BK174" s="3"/>
       <c r="BL174" s="3"/>
       <c r="BM174" s="3"/>
-    </row>
-    <row r="175" spans="1:65">
+      <c r="BN174" s="3"/>
+    </row>
+    <row r="175" spans="1:66">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -12275,8 +12625,9 @@
       <c r="BK175" s="3"/>
       <c r="BL175" s="3"/>
       <c r="BM175" s="3"/>
-    </row>
-    <row r="176" spans="1:65">
+      <c r="BN175" s="3"/>
+    </row>
+    <row r="176" spans="1:66">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -12342,8 +12693,9 @@
       <c r="BK176" s="3"/>
       <c r="BL176" s="3"/>
       <c r="BM176" s="3"/>
-    </row>
-    <row r="177" spans="1:65">
+      <c r="BN176" s="3"/>
+    </row>
+    <row r="177" spans="1:66">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -12409,8 +12761,9 @@
       <c r="BK177" s="3"/>
       <c r="BL177" s="3"/>
       <c r="BM177" s="3"/>
-    </row>
-    <row r="178" spans="1:65">
+      <c r="BN177" s="3"/>
+    </row>
+    <row r="178" spans="1:66">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -12476,8 +12829,9 @@
       <c r="BK178" s="3"/>
       <c r="BL178" s="3"/>
       <c r="BM178" s="3"/>
-    </row>
-    <row r="179" spans="1:65">
+      <c r="BN178" s="3"/>
+    </row>
+    <row r="179" spans="1:66">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -12543,8 +12897,9 @@
       <c r="BK179" s="3"/>
       <c r="BL179" s="3"/>
       <c r="BM179" s="3"/>
-    </row>
-    <row r="180" spans="1:65">
+      <c r="BN179" s="3"/>
+    </row>
+    <row r="180" spans="1:66">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -12610,8 +12965,9 @@
       <c r="BK180" s="3"/>
       <c r="BL180" s="3"/>
       <c r="BM180" s="3"/>
-    </row>
-    <row r="181" spans="1:65">
+      <c r="BN180" s="3"/>
+    </row>
+    <row r="181" spans="1:66">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -12677,8 +13033,9 @@
       <c r="BK181" s="3"/>
       <c r="BL181" s="3"/>
       <c r="BM181" s="3"/>
-    </row>
-    <row r="182" spans="1:65">
+      <c r="BN181" s="3"/>
+    </row>
+    <row r="182" spans="1:66">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -12744,8 +13101,9 @@
       <c r="BK182" s="3"/>
       <c r="BL182" s="3"/>
       <c r="BM182" s="3"/>
-    </row>
-    <row r="183" spans="1:65">
+      <c r="BN182" s="3"/>
+    </row>
+    <row r="183" spans="1:66">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -12811,8 +13169,9 @@
       <c r="BK183" s="3"/>
       <c r="BL183" s="3"/>
       <c r="BM183" s="3"/>
-    </row>
-    <row r="184" spans="1:65">
+      <c r="BN183" s="3"/>
+    </row>
+    <row r="184" spans="1:66">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -12878,8 +13237,9 @@
       <c r="BK184" s="3"/>
       <c r="BL184" s="3"/>
       <c r="BM184" s="3"/>
-    </row>
-    <row r="185" spans="1:65">
+      <c r="BN184" s="3"/>
+    </row>
+    <row r="185" spans="1:66">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -12945,8 +13305,9 @@
       <c r="BK185" s="3"/>
       <c r="BL185" s="3"/>
       <c r="BM185" s="3"/>
-    </row>
-    <row r="186" spans="1:65">
+      <c r="BN185" s="3"/>
+    </row>
+    <row r="186" spans="1:66">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -13012,8 +13373,9 @@
       <c r="BK186" s="3"/>
       <c r="BL186" s="3"/>
       <c r="BM186" s="3"/>
-    </row>
-    <row r="187" spans="1:65">
+      <c r="BN186" s="3"/>
+    </row>
+    <row r="187" spans="1:66">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -13079,8 +13441,9 @@
       <c r="BK187" s="3"/>
       <c r="BL187" s="3"/>
       <c r="BM187" s="3"/>
-    </row>
-    <row r="188" spans="1:65">
+      <c r="BN187" s="3"/>
+    </row>
+    <row r="188" spans="1:66">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -13146,8 +13509,9 @@
       <c r="BK188" s="3"/>
       <c r="BL188" s="3"/>
       <c r="BM188" s="3"/>
-    </row>
-    <row r="189" spans="1:65">
+      <c r="BN188" s="3"/>
+    </row>
+    <row r="189" spans="1:66">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -13213,8 +13577,9 @@
       <c r="BK189" s="3"/>
       <c r="BL189" s="3"/>
       <c r="BM189" s="3"/>
-    </row>
-    <row r="190" spans="1:65">
+      <c r="BN189" s="3"/>
+    </row>
+    <row r="190" spans="1:66">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -13280,8 +13645,9 @@
       <c r="BK190" s="3"/>
       <c r="BL190" s="3"/>
       <c r="BM190" s="3"/>
-    </row>
-    <row r="191" spans="1:65">
+      <c r="BN190" s="3"/>
+    </row>
+    <row r="191" spans="1:66">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -13347,8 +13713,9 @@
       <c r="BK191" s="3"/>
       <c r="BL191" s="3"/>
       <c r="BM191" s="3"/>
-    </row>
-    <row r="192" spans="1:65">
+      <c r="BN191" s="3"/>
+    </row>
+    <row r="192" spans="1:66">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -13414,8 +13781,9 @@
       <c r="BK192" s="3"/>
       <c r="BL192" s="3"/>
       <c r="BM192" s="3"/>
-    </row>
-    <row r="193" spans="1:65">
+      <c r="BN192" s="3"/>
+    </row>
+    <row r="193" spans="1:66">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -13481,8 +13849,9 @@
       <c r="BK193" s="3"/>
       <c r="BL193" s="3"/>
       <c r="BM193" s="3"/>
-    </row>
-    <row r="194" spans="1:65">
+      <c r="BN193" s="3"/>
+    </row>
+    <row r="194" spans="1:66">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -13548,8 +13917,9 @@
       <c r="BK194" s="3"/>
       <c r="BL194" s="3"/>
       <c r="BM194" s="3"/>
-    </row>
-    <row r="195" spans="1:65">
+      <c r="BN194" s="3"/>
+    </row>
+    <row r="195" spans="1:66">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -13615,8 +13985,9 @@
       <c r="BK195" s="3"/>
       <c r="BL195" s="3"/>
       <c r="BM195" s="3"/>
-    </row>
-    <row r="196" spans="1:65">
+      <c r="BN195" s="3"/>
+    </row>
+    <row r="196" spans="1:66">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -13682,8 +14053,9 @@
       <c r="BK196" s="3"/>
       <c r="BL196" s="3"/>
       <c r="BM196" s="3"/>
-    </row>
-    <row r="197" spans="1:65">
+      <c r="BN196" s="3"/>
+    </row>
+    <row r="197" spans="1:66">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -13749,8 +14121,9 @@
       <c r="BK197" s="3"/>
       <c r="BL197" s="3"/>
       <c r="BM197" s="3"/>
-    </row>
-    <row r="198" spans="1:65">
+      <c r="BN197" s="3"/>
+    </row>
+    <row r="198" spans="1:66">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -13816,8 +14189,9 @@
       <c r="BK198" s="3"/>
       <c r="BL198" s="3"/>
       <c r="BM198" s="3"/>
-    </row>
-    <row r="199" spans="1:65">
+      <c r="BN198" s="3"/>
+    </row>
+    <row r="199" spans="1:66">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -13883,8 +14257,9 @@
       <c r="BK199" s="3"/>
       <c r="BL199" s="3"/>
       <c r="BM199" s="3"/>
-    </row>
-    <row r="200" spans="1:65">
+      <c r="BN199" s="3"/>
+    </row>
+    <row r="200" spans="1:66">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -13950,8 +14325,9 @@
       <c r="BK200" s="3"/>
       <c r="BL200" s="3"/>
       <c r="BM200" s="3"/>
-    </row>
-    <row r="201" spans="1:65">
+      <c r="BN200" s="3"/>
+    </row>
+    <row r="201" spans="1:66">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -14017,8 +14393,9 @@
       <c r="BK201" s="3"/>
       <c r="BL201" s="3"/>
       <c r="BM201" s="3"/>
-    </row>
-    <row r="202" spans="1:65">
+      <c r="BN201" s="3"/>
+    </row>
+    <row r="202" spans="1:66">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -14084,8 +14461,9 @@
       <c r="BK202" s="3"/>
       <c r="BL202" s="3"/>
       <c r="BM202" s="3"/>
-    </row>
-    <row r="203" spans="1:65">
+      <c r="BN202" s="3"/>
+    </row>
+    <row r="203" spans="1:66">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -14151,8 +14529,9 @@
       <c r="BK203" s="3"/>
       <c r="BL203" s="3"/>
       <c r="BM203" s="3"/>
-    </row>
-    <row r="204" spans="1:65">
+      <c r="BN203" s="3"/>
+    </row>
+    <row r="204" spans="1:66">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -14218,8 +14597,9 @@
       <c r="BK204" s="3"/>
       <c r="BL204" s="3"/>
       <c r="BM204" s="3"/>
-    </row>
-    <row r="205" spans="1:65">
+      <c r="BN204" s="3"/>
+    </row>
+    <row r="205" spans="1:66">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -14285,8 +14665,9 @@
       <c r="BK205" s="3"/>
       <c r="BL205" s="3"/>
       <c r="BM205" s="3"/>
-    </row>
-    <row r="206" spans="1:65">
+      <c r="BN205" s="3"/>
+    </row>
+    <row r="206" spans="1:66">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -14352,8 +14733,9 @@
       <c r="BK206" s="3"/>
       <c r="BL206" s="3"/>
       <c r="BM206" s="3"/>
-    </row>
-    <row r="207" spans="1:65">
+      <c r="BN206" s="3"/>
+    </row>
+    <row r="207" spans="1:66">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -14419,8 +14801,9 @@
       <c r="BK207" s="3"/>
       <c r="BL207" s="3"/>
       <c r="BM207" s="3"/>
-    </row>
-    <row r="208" spans="1:65">
+      <c r="BN207" s="3"/>
+    </row>
+    <row r="208" spans="1:66">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -14486,8 +14869,9 @@
       <c r="BK208" s="3"/>
       <c r="BL208" s="3"/>
       <c r="BM208" s="3"/>
-    </row>
-    <row r="209" spans="1:65">
+      <c r="BN208" s="3"/>
+    </row>
+    <row r="209" spans="1:66">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -14553,8 +14937,9 @@
       <c r="BK209" s="3"/>
       <c r="BL209" s="3"/>
       <c r="BM209" s="3"/>
-    </row>
-    <row r="210" spans="1:65">
+      <c r="BN209" s="3"/>
+    </row>
+    <row r="210" spans="1:66">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -14620,8 +15005,9 @@
       <c r="BK210" s="3"/>
       <c r="BL210" s="3"/>
       <c r="BM210" s="3"/>
-    </row>
-    <row r="211" spans="1:65">
+      <c r="BN210" s="3"/>
+    </row>
+    <row r="211" spans="1:66">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -14687,8 +15073,9 @@
       <c r="BK211" s="3"/>
       <c r="BL211" s="3"/>
       <c r="BM211" s="3"/>
-    </row>
-    <row r="212" spans="1:65">
+      <c r="BN211" s="3"/>
+    </row>
+    <row r="212" spans="1:66">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -14754,8 +15141,9 @@
       <c r="BK212" s="3"/>
       <c r="BL212" s="3"/>
       <c r="BM212" s="3"/>
-    </row>
-    <row r="213" spans="1:65">
+      <c r="BN212" s="3"/>
+    </row>
+    <row r="213" spans="1:66">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -14821,8 +15209,9 @@
       <c r="BK213" s="3"/>
       <c r="BL213" s="3"/>
       <c r="BM213" s="3"/>
-    </row>
-    <row r="214" spans="1:65">
+      <c r="BN213" s="3"/>
+    </row>
+    <row r="214" spans="1:66">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -14888,8 +15277,9 @@
       <c r="BK214" s="3"/>
       <c r="BL214" s="3"/>
       <c r="BM214" s="3"/>
-    </row>
-    <row r="215" spans="1:65">
+      <c r="BN214" s="3"/>
+    </row>
+    <row r="215" spans="1:66">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -14955,8 +15345,9 @@
       <c r="BK215" s="3"/>
       <c r="BL215" s="3"/>
       <c r="BM215" s="3"/>
-    </row>
-    <row r="216" spans="1:65">
+      <c r="BN215" s="3"/>
+    </row>
+    <row r="216" spans="1:66">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -15022,8 +15413,9 @@
       <c r="BK216" s="3"/>
       <c r="BL216" s="3"/>
       <c r="BM216" s="3"/>
-    </row>
-    <row r="217" spans="1:65">
+      <c r="BN216" s="3"/>
+    </row>
+    <row r="217" spans="1:66">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -15089,8 +15481,9 @@
       <c r="BK217" s="3"/>
       <c r="BL217" s="3"/>
       <c r="BM217" s="3"/>
-    </row>
-    <row r="218" spans="1:65">
+      <c r="BN217" s="3"/>
+    </row>
+    <row r="218" spans="1:66">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -15156,8 +15549,9 @@
       <c r="BK218" s="3"/>
       <c r="BL218" s="3"/>
       <c r="BM218" s="3"/>
-    </row>
-    <row r="219" spans="1:65">
+      <c r="BN218" s="3"/>
+    </row>
+    <row r="219" spans="1:66">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -15223,8 +15617,9 @@
       <c r="BK219" s="3"/>
       <c r="BL219" s="3"/>
       <c r="BM219" s="3"/>
-    </row>
-    <row r="220" spans="1:65">
+      <c r="BN219" s="3"/>
+    </row>
+    <row r="220" spans="1:66">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -15290,8 +15685,9 @@
       <c r="BK220" s="3"/>
       <c r="BL220" s="3"/>
       <c r="BM220" s="3"/>
-    </row>
-    <row r="221" spans="1:65">
+      <c r="BN220" s="3"/>
+    </row>
+    <row r="221" spans="1:66">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -15357,8 +15753,9 @@
       <c r="BK221" s="3"/>
       <c r="BL221" s="3"/>
       <c r="BM221" s="3"/>
-    </row>
-    <row r="222" spans="1:65">
+      <c r="BN221" s="3"/>
+    </row>
+    <row r="222" spans="1:66">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -15424,8 +15821,9 @@
       <c r="BK222" s="3"/>
       <c r="BL222" s="3"/>
       <c r="BM222" s="3"/>
-    </row>
-    <row r="223" spans="1:65">
+      <c r="BN222" s="3"/>
+    </row>
+    <row r="223" spans="1:66">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -15491,8 +15889,9 @@
       <c r="BK223" s="3"/>
       <c r="BL223" s="3"/>
       <c r="BM223" s="3"/>
-    </row>
-    <row r="224" spans="1:65">
+      <c r="BN223" s="3"/>
+    </row>
+    <row r="224" spans="1:66">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -15558,8 +15957,9 @@
       <c r="BK224" s="3"/>
       <c r="BL224" s="3"/>
       <c r="BM224" s="3"/>
-    </row>
-    <row r="225" spans="1:65">
+      <c r="BN224" s="3"/>
+    </row>
+    <row r="225" spans="1:66">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -15625,8 +16025,9 @@
       <c r="BK225" s="3"/>
       <c r="BL225" s="3"/>
       <c r="BM225" s="3"/>
-    </row>
-    <row r="226" spans="1:65">
+      <c r="BN225" s="3"/>
+    </row>
+    <row r="226" spans="1:66">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -15692,8 +16093,9 @@
       <c r="BK226" s="3"/>
       <c r="BL226" s="3"/>
       <c r="BM226" s="3"/>
-    </row>
-    <row r="227" spans="1:65">
+      <c r="BN226" s="3"/>
+    </row>
+    <row r="227" spans="1:66">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -15759,8 +16161,9 @@
       <c r="BK227" s="3"/>
       <c r="BL227" s="3"/>
       <c r="BM227" s="3"/>
-    </row>
-    <row r="228" spans="1:65">
+      <c r="BN227" s="3"/>
+    </row>
+    <row r="228" spans="1:66">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -15826,8 +16229,9 @@
       <c r="BK228" s="3"/>
       <c r="BL228" s="3"/>
       <c r="BM228" s="3"/>
-    </row>
-    <row r="229" spans="1:65">
+      <c r="BN228" s="3"/>
+    </row>
+    <row r="229" spans="1:66">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -15893,8 +16297,9 @@
       <c r="BK229" s="3"/>
       <c r="BL229" s="3"/>
       <c r="BM229" s="3"/>
-    </row>
-    <row r="230" spans="1:65">
+      <c r="BN229" s="3"/>
+    </row>
+    <row r="230" spans="1:66">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -15960,8 +16365,9 @@
       <c r="BK230" s="3"/>
       <c r="BL230" s="3"/>
       <c r="BM230" s="3"/>
-    </row>
-    <row r="231" spans="1:65">
+      <c r="BN230" s="3"/>
+    </row>
+    <row r="231" spans="1:66">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -16027,8 +16433,9 @@
       <c r="BK231" s="3"/>
       <c r="BL231" s="3"/>
       <c r="BM231" s="3"/>
-    </row>
-    <row r="232" spans="1:65">
+      <c r="BN231" s="3"/>
+    </row>
+    <row r="232" spans="1:66">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -16094,8 +16501,9 @@
       <c r="BK232" s="3"/>
       <c r="BL232" s="3"/>
       <c r="BM232" s="3"/>
-    </row>
-    <row r="233" spans="1:65">
+      <c r="BN232" s="3"/>
+    </row>
+    <row r="233" spans="1:66">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -16161,8 +16569,9 @@
       <c r="BK233" s="3"/>
       <c r="BL233" s="3"/>
       <c r="BM233" s="3"/>
-    </row>
-    <row r="234" spans="1:65">
+      <c r="BN233" s="3"/>
+    </row>
+    <row r="234" spans="1:66">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -16228,8 +16637,9 @@
       <c r="BK234" s="3"/>
       <c r="BL234" s="3"/>
       <c r="BM234" s="3"/>
-    </row>
-    <row r="235" spans="1:65">
+      <c r="BN234" s="3"/>
+    </row>
+    <row r="235" spans="1:66">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -16295,8 +16705,9 @@
       <c r="BK235" s="3"/>
       <c r="BL235" s="3"/>
       <c r="BM235" s="3"/>
-    </row>
-    <row r="236" spans="1:65">
+      <c r="BN235" s="3"/>
+    </row>
+    <row r="236" spans="1:66">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -16362,8 +16773,9 @@
       <c r="BK236" s="3"/>
       <c r="BL236" s="3"/>
       <c r="BM236" s="3"/>
-    </row>
-    <row r="237" spans="1:65">
+      <c r="BN236" s="3"/>
+    </row>
+    <row r="237" spans="1:66">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -16429,8 +16841,9 @@
       <c r="BK237" s="3"/>
       <c r="BL237" s="3"/>
       <c r="BM237" s="3"/>
-    </row>
-    <row r="238" spans="1:65">
+      <c r="BN237" s="3"/>
+    </row>
+    <row r="238" spans="1:66">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -16496,8 +16909,9 @@
       <c r="BK238" s="3"/>
       <c r="BL238" s="3"/>
       <c r="BM238" s="3"/>
-    </row>
-    <row r="239" spans="1:65">
+      <c r="BN238" s="3"/>
+    </row>
+    <row r="239" spans="1:66">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -16563,8 +16977,9 @@
       <c r="BK239" s="3"/>
       <c r="BL239" s="3"/>
       <c r="BM239" s="3"/>
-    </row>
-    <row r="240" spans="1:65">
+      <c r="BN239" s="3"/>
+    </row>
+    <row r="240" spans="1:66">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -16630,8 +17045,9 @@
       <c r="BK240" s="3"/>
       <c r="BL240" s="3"/>
       <c r="BM240" s="3"/>
-    </row>
-    <row r="241" spans="1:65">
+      <c r="BN240" s="3"/>
+    </row>
+    <row r="241" spans="1:66">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -16697,8 +17113,9 @@
       <c r="BK241" s="3"/>
       <c r="BL241" s="3"/>
       <c r="BM241" s="3"/>
-    </row>
-    <row r="242" spans="1:65">
+      <c r="BN241" s="3"/>
+    </row>
+    <row r="242" spans="1:66">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -16764,8 +17181,9 @@
       <c r="BK242" s="3"/>
       <c r="BL242" s="3"/>
       <c r="BM242" s="3"/>
-    </row>
-    <row r="243" spans="1:65">
+      <c r="BN242" s="3"/>
+    </row>
+    <row r="243" spans="1:66">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -16831,8 +17249,9 @@
       <c r="BK243" s="3"/>
       <c r="BL243" s="3"/>
       <c r="BM243" s="3"/>
-    </row>
-    <row r="244" spans="1:65">
+      <c r="BN243" s="3"/>
+    </row>
+    <row r="244" spans="1:66">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -16898,8 +17317,9 @@
       <c r="BK244" s="3"/>
       <c r="BL244" s="3"/>
       <c r="BM244" s="3"/>
-    </row>
-    <row r="245" spans="1:65">
+      <c r="BN244" s="3"/>
+    </row>
+    <row r="245" spans="1:66">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -16965,8 +17385,9 @@
       <c r="BK245" s="3"/>
       <c r="BL245" s="3"/>
       <c r="BM245" s="3"/>
-    </row>
-    <row r="246" spans="1:65">
+      <c r="BN245" s="3"/>
+    </row>
+    <row r="246" spans="1:66">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -17032,8 +17453,9 @@
       <c r="BK246" s="3"/>
       <c r="BL246" s="3"/>
       <c r="BM246" s="3"/>
-    </row>
-    <row r="247" spans="1:65">
+      <c r="BN246" s="3"/>
+    </row>
+    <row r="247" spans="1:66">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -17099,8 +17521,9 @@
       <c r="BK247" s="3"/>
       <c r="BL247" s="3"/>
       <c r="BM247" s="3"/>
-    </row>
-    <row r="248" spans="1:65">
+      <c r="BN247" s="3"/>
+    </row>
+    <row r="248" spans="1:66">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -17166,8 +17589,9 @@
       <c r="BK248" s="3"/>
       <c r="BL248" s="3"/>
       <c r="BM248" s="3"/>
-    </row>
-    <row r="249" spans="1:65">
+      <c r="BN248" s="3"/>
+    </row>
+    <row r="249" spans="1:66">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -17233,8 +17657,9 @@
       <c r="BK249" s="3"/>
       <c r="BL249" s="3"/>
       <c r="BM249" s="3"/>
-    </row>
-    <row r="250" spans="1:65">
+      <c r="BN249" s="3"/>
+    </row>
+    <row r="250" spans="1:66">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -17300,8 +17725,9 @@
       <c r="BK250" s="3"/>
       <c r="BL250" s="3"/>
       <c r="BM250" s="3"/>
-    </row>
-    <row r="251" spans="1:65">
+      <c r="BN250" s="3"/>
+    </row>
+    <row r="251" spans="1:66">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -17367,8 +17793,9 @@
       <c r="BK251" s="3"/>
       <c r="BL251" s="3"/>
       <c r="BM251" s="3"/>
-    </row>
-    <row r="252" spans="1:65">
+      <c r="BN251" s="3"/>
+    </row>
+    <row r="252" spans="1:66">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -17434,8 +17861,9 @@
       <c r="BK252" s="3"/>
       <c r="BL252" s="3"/>
       <c r="BM252" s="3"/>
-    </row>
-    <row r="253" spans="1:65">
+      <c r="BN252" s="3"/>
+    </row>
+    <row r="253" spans="1:66">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -17501,8 +17929,9 @@
       <c r="BK253" s="3"/>
       <c r="BL253" s="3"/>
       <c r="BM253" s="3"/>
-    </row>
-    <row r="254" spans="1:65">
+      <c r="BN253" s="3"/>
+    </row>
+    <row r="254" spans="1:66">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -17568,8 +17997,9 @@
       <c r="BK254" s="3"/>
       <c r="BL254" s="3"/>
       <c r="BM254" s="3"/>
-    </row>
-    <row r="255" spans="1:65">
+      <c r="BN254" s="3"/>
+    </row>
+    <row r="255" spans="1:66">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -17635,8 +18065,9 @@
       <c r="BK255" s="3"/>
       <c r="BL255" s="3"/>
       <c r="BM255" s="3"/>
-    </row>
-    <row r="256" spans="1:65">
+      <c r="BN255" s="3"/>
+    </row>
+    <row r="256" spans="1:66">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -17702,8 +18133,9 @@
       <c r="BK256" s="3"/>
       <c r="BL256" s="3"/>
       <c r="BM256" s="3"/>
-    </row>
-    <row r="257" spans="1:65">
+      <c r="BN256" s="3"/>
+    </row>
+    <row r="257" spans="1:66">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -17769,8 +18201,9 @@
       <c r="BK257" s="3"/>
       <c r="BL257" s="3"/>
       <c r="BM257" s="3"/>
-    </row>
-    <row r="258" spans="1:65">
+      <c r="BN257" s="3"/>
+    </row>
+    <row r="258" spans="1:66">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -17836,8 +18269,9 @@
       <c r="BK258" s="3"/>
       <c r="BL258" s="3"/>
       <c r="BM258" s="3"/>
-    </row>
-    <row r="259" spans="1:65">
+      <c r="BN258" s="3"/>
+    </row>
+    <row r="259" spans="1:66">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -17903,8 +18337,9 @@
       <c r="BK259" s="3"/>
       <c r="BL259" s="3"/>
       <c r="BM259" s="3"/>
-    </row>
-    <row r="260" spans="1:65">
+      <c r="BN259" s="3"/>
+    </row>
+    <row r="260" spans="1:66">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -17970,8 +18405,9 @@
       <c r="BK260" s="3"/>
       <c r="BL260" s="3"/>
       <c r="BM260" s="3"/>
-    </row>
-    <row r="261" spans="1:65">
+      <c r="BN260" s="3"/>
+    </row>
+    <row r="261" spans="1:66">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -18037,8 +18473,9 @@
       <c r="BK261" s="3"/>
       <c r="BL261" s="3"/>
       <c r="BM261" s="3"/>
-    </row>
-    <row r="262" spans="1:65">
+      <c r="BN261" s="3"/>
+    </row>
+    <row r="262" spans="1:66">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -18104,8 +18541,9 @@
       <c r="BK262" s="3"/>
       <c r="BL262" s="3"/>
       <c r="BM262" s="3"/>
-    </row>
-    <row r="263" spans="1:65">
+      <c r="BN262" s="3"/>
+    </row>
+    <row r="263" spans="1:66">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -18171,8 +18609,9 @@
       <c r="BK263" s="3"/>
       <c r="BL263" s="3"/>
       <c r="BM263" s="3"/>
-    </row>
-    <row r="264" spans="1:65">
+      <c r="BN263" s="3"/>
+    </row>
+    <row r="264" spans="1:66">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -18238,8 +18677,9 @@
       <c r="BK264" s="3"/>
       <c r="BL264" s="3"/>
       <c r="BM264" s="3"/>
-    </row>
-    <row r="265" spans="1:65">
+      <c r="BN264" s="3"/>
+    </row>
+    <row r="265" spans="1:66">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -18305,8 +18745,9 @@
       <c r="BK265" s="3"/>
       <c r="BL265" s="3"/>
       <c r="BM265" s="3"/>
-    </row>
-    <row r="266" spans="1:65">
+      <c r="BN265" s="3"/>
+    </row>
+    <row r="266" spans="1:66">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -18372,8 +18813,9 @@
       <c r="BK266" s="3"/>
       <c r="BL266" s="3"/>
       <c r="BM266" s="3"/>
-    </row>
-    <row r="267" spans="1:65">
+      <c r="BN266" s="3"/>
+    </row>
+    <row r="267" spans="1:66">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -18439,8 +18881,9 @@
       <c r="BK267" s="3"/>
       <c r="BL267" s="3"/>
       <c r="BM267" s="3"/>
-    </row>
-    <row r="268" spans="1:65">
+      <c r="BN267" s="3"/>
+    </row>
+    <row r="268" spans="1:66">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -18506,8 +18949,9 @@
       <c r="BK268" s="3"/>
       <c r="BL268" s="3"/>
       <c r="BM268" s="3"/>
-    </row>
-    <row r="269" spans="1:65">
+      <c r="BN268" s="3"/>
+    </row>
+    <row r="269" spans="1:66">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -18573,8 +19017,9 @@
       <c r="BK269" s="3"/>
       <c r="BL269" s="3"/>
       <c r="BM269" s="3"/>
-    </row>
-    <row r="270" spans="1:65">
+      <c r="BN269" s="3"/>
+    </row>
+    <row r="270" spans="1:66">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -18640,8 +19085,9 @@
       <c r="BK270" s="3"/>
       <c r="BL270" s="3"/>
       <c r="BM270" s="3"/>
-    </row>
-    <row r="271" spans="1:65">
+      <c r="BN270" s="3"/>
+    </row>
+    <row r="271" spans="1:66">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -18707,8 +19153,9 @@
       <c r="BK271" s="3"/>
       <c r="BL271" s="3"/>
       <c r="BM271" s="3"/>
-    </row>
-    <row r="272" spans="1:65">
+      <c r="BN271" s="3"/>
+    </row>
+    <row r="272" spans="1:66">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -18774,8 +19221,9 @@
       <c r="BK272" s="3"/>
       <c r="BL272" s="3"/>
       <c r="BM272" s="3"/>
-    </row>
-    <row r="273" spans="1:65">
+      <c r="BN272" s="3"/>
+    </row>
+    <row r="273" spans="1:66">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -18841,8 +19289,9 @@
       <c r="BK273" s="3"/>
       <c r="BL273" s="3"/>
       <c r="BM273" s="3"/>
-    </row>
-    <row r="274" spans="1:65">
+      <c r="BN273" s="3"/>
+    </row>
+    <row r="274" spans="1:66">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -18908,8 +19357,9 @@
       <c r="BK274" s="3"/>
       <c r="BL274" s="3"/>
       <c r="BM274" s="3"/>
-    </row>
-    <row r="275" spans="1:65">
+      <c r="BN274" s="3"/>
+    </row>
+    <row r="275" spans="1:66">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -18975,8 +19425,9 @@
       <c r="BK275" s="3"/>
       <c r="BL275" s="3"/>
       <c r="BM275" s="3"/>
-    </row>
-    <row r="276" spans="1:65">
+      <c r="BN275" s="3"/>
+    </row>
+    <row r="276" spans="1:66">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -19042,8 +19493,9 @@
       <c r="BK276" s="3"/>
       <c r="BL276" s="3"/>
       <c r="BM276" s="3"/>
-    </row>
-    <row r="277" spans="1:65">
+      <c r="BN276" s="3"/>
+    </row>
+    <row r="277" spans="1:66">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -19109,8 +19561,9 @@
       <c r="BK277" s="3"/>
       <c r="BL277" s="3"/>
       <c r="BM277" s="3"/>
-    </row>
-    <row r="278" spans="1:65">
+      <c r="BN277" s="3"/>
+    </row>
+    <row r="278" spans="1:66">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -19176,8 +19629,9 @@
       <c r="BK278" s="3"/>
       <c r="BL278" s="3"/>
       <c r="BM278" s="3"/>
-    </row>
-    <row r="279" spans="1:65">
+      <c r="BN278" s="3"/>
+    </row>
+    <row r="279" spans="1:66">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -19243,8 +19697,9 @@
       <c r="BK279" s="3"/>
       <c r="BL279" s="3"/>
       <c r="BM279" s="3"/>
-    </row>
-    <row r="280" spans="1:65">
+      <c r="BN279" s="3"/>
+    </row>
+    <row r="280" spans="1:66">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -19310,8 +19765,9 @@
       <c r="BK280" s="3"/>
       <c r="BL280" s="3"/>
       <c r="BM280" s="3"/>
-    </row>
-    <row r="281" spans="1:65">
+      <c r="BN280" s="3"/>
+    </row>
+    <row r="281" spans="1:66">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -19377,8 +19833,9 @@
       <c r="BK281" s="3"/>
       <c r="BL281" s="3"/>
       <c r="BM281" s="3"/>
-    </row>
-    <row r="282" spans="1:65">
+      <c r="BN281" s="3"/>
+    </row>
+    <row r="282" spans="1:66">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -19444,8 +19901,9 @@
       <c r="BK282" s="3"/>
       <c r="BL282" s="3"/>
       <c r="BM282" s="3"/>
-    </row>
-    <row r="283" spans="1:65">
+      <c r="BN282" s="3"/>
+    </row>
+    <row r="283" spans="1:66">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -19511,8 +19969,9 @@
       <c r="BK283" s="3"/>
       <c r="BL283" s="3"/>
       <c r="BM283" s="3"/>
-    </row>
-    <row r="284" spans="1:65">
+      <c r="BN283" s="3"/>
+    </row>
+    <row r="284" spans="1:66">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -19578,8 +20037,9 @@
       <c r="BK284" s="3"/>
       <c r="BL284" s="3"/>
       <c r="BM284" s="3"/>
-    </row>
-    <row r="285" spans="1:65">
+      <c r="BN284" s="3"/>
+    </row>
+    <row r="285" spans="1:66">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -19645,8 +20105,9 @@
       <c r="BK285" s="3"/>
       <c r="BL285" s="3"/>
       <c r="BM285" s="3"/>
-    </row>
-    <row r="286" spans="1:65">
+      <c r="BN285" s="3"/>
+    </row>
+    <row r="286" spans="1:66">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -19712,8 +20173,9 @@
       <c r="BK286" s="3"/>
       <c r="BL286" s="3"/>
       <c r="BM286" s="3"/>
-    </row>
-    <row r="287" spans="1:65">
+      <c r="BN286" s="3"/>
+    </row>
+    <row r="287" spans="1:66">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -19779,8 +20241,9 @@
       <c r="BK287" s="3"/>
       <c r="BL287" s="3"/>
       <c r="BM287" s="3"/>
-    </row>
-    <row r="288" spans="1:65">
+      <c r="BN287" s="3"/>
+    </row>
+    <row r="288" spans="1:66">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -19846,8 +20309,9 @@
       <c r="BK288" s="3"/>
       <c r="BL288" s="3"/>
       <c r="BM288" s="3"/>
-    </row>
-    <row r="289" spans="1:65">
+      <c r="BN288" s="3"/>
+    </row>
+    <row r="289" spans="1:66">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -19913,8 +20377,9 @@
       <c r="BK289" s="3"/>
       <c r="BL289" s="3"/>
       <c r="BM289" s="3"/>
-    </row>
-    <row r="290" spans="1:65">
+      <c r="BN289" s="3"/>
+    </row>
+    <row r="290" spans="1:66">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -19980,8 +20445,9 @@
       <c r="BK290" s="3"/>
       <c r="BL290" s="3"/>
       <c r="BM290" s="3"/>
-    </row>
-    <row r="291" spans="1:65">
+      <c r="BN290" s="3"/>
+    </row>
+    <row r="291" spans="1:66">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -20047,8 +20513,9 @@
       <c r="BK291" s="3"/>
       <c r="BL291" s="3"/>
       <c r="BM291" s="3"/>
-    </row>
-    <row r="292" spans="1:65">
+      <c r="BN291" s="3"/>
+    </row>
+    <row r="292" spans="1:66">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -20114,8 +20581,9 @@
       <c r="BK292" s="3"/>
       <c r="BL292" s="3"/>
       <c r="BM292" s="3"/>
-    </row>
-    <row r="293" spans="1:65">
+      <c r="BN292" s="3"/>
+    </row>
+    <row r="293" spans="1:66">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -20181,8 +20649,9 @@
       <c r="BK293" s="3"/>
       <c r="BL293" s="3"/>
       <c r="BM293" s="3"/>
-    </row>
-    <row r="294" spans="1:65">
+      <c r="BN293" s="3"/>
+    </row>
+    <row r="294" spans="1:66">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -20248,8 +20717,9 @@
       <c r="BK294" s="3"/>
       <c r="BL294" s="3"/>
       <c r="BM294" s="3"/>
-    </row>
-    <row r="295" spans="1:65">
+      <c r="BN294" s="3"/>
+    </row>
+    <row r="295" spans="1:66">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -20315,8 +20785,9 @@
       <c r="BK295" s="3"/>
       <c r="BL295" s="3"/>
       <c r="BM295" s="3"/>
-    </row>
-    <row r="296" spans="1:65">
+      <c r="BN295" s="3"/>
+    </row>
+    <row r="296" spans="1:66">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -20382,8 +20853,9 @@
       <c r="BK296" s="3"/>
       <c r="BL296" s="3"/>
       <c r="BM296" s="3"/>
-    </row>
-    <row r="297" spans="1:65">
+      <c r="BN296" s="3"/>
+    </row>
+    <row r="297" spans="1:66">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -20449,8 +20921,9 @@
       <c r="BK297" s="3"/>
       <c r="BL297" s="3"/>
       <c r="BM297" s="3"/>
-    </row>
-    <row r="298" spans="1:65">
+      <c r="BN297" s="3"/>
+    </row>
+    <row r="298" spans="1:66">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -20516,8 +20989,9 @@
       <c r="BK298" s="3"/>
       <c r="BL298" s="3"/>
       <c r="BM298" s="3"/>
-    </row>
-    <row r="299" spans="1:65">
+      <c r="BN298" s="3"/>
+    </row>
+    <row r="299" spans="1:66">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -20583,8 +21057,9 @@
       <c r="BK299" s="3"/>
       <c r="BL299" s="3"/>
       <c r="BM299" s="3"/>
-    </row>
-    <row r="300" spans="1:65">
+      <c r="BN299" s="3"/>
+    </row>
+    <row r="300" spans="1:66">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -20650,8 +21125,9 @@
       <c r="BK300" s="3"/>
       <c r="BL300" s="3"/>
       <c r="BM300" s="3"/>
-    </row>
-    <row r="301" spans="1:65">
+      <c r="BN300" s="3"/>
+    </row>
+    <row r="301" spans="1:66">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -20717,8 +21193,9 @@
       <c r="BK301" s="3"/>
       <c r="BL301" s="3"/>
       <c r="BM301" s="3"/>
-    </row>
-    <row r="302" spans="1:65">
+      <c r="BN301" s="3"/>
+    </row>
+    <row r="302" spans="1:66">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -20784,8 +21261,9 @@
       <c r="BK302" s="3"/>
       <c r="BL302" s="3"/>
       <c r="BM302" s="3"/>
-    </row>
-    <row r="303" spans="1:65">
+      <c r="BN302" s="3"/>
+    </row>
+    <row r="303" spans="1:66">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -20851,8 +21329,9 @@
       <c r="BK303" s="3"/>
       <c r="BL303" s="3"/>
       <c r="BM303" s="3"/>
-    </row>
-    <row r="304" spans="1:65">
+      <c r="BN303" s="3"/>
+    </row>
+    <row r="304" spans="1:66">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -20918,8 +21397,9 @@
       <c r="BK304" s="3"/>
       <c r="BL304" s="3"/>
       <c r="BM304" s="3"/>
-    </row>
-    <row r="305" spans="1:65">
+      <c r="BN304" s="3"/>
+    </row>
+    <row r="305" spans="1:66">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -20985,8 +21465,9 @@
       <c r="BK305" s="3"/>
       <c r="BL305" s="3"/>
       <c r="BM305" s="3"/>
-    </row>
-    <row r="306" spans="1:65">
+      <c r="BN305" s="3"/>
+    </row>
+    <row r="306" spans="1:66">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -21052,8 +21533,9 @@
       <c r="BK306" s="3"/>
       <c r="BL306" s="3"/>
       <c r="BM306" s="3"/>
-    </row>
-    <row r="307" spans="1:65">
+      <c r="BN306" s="3"/>
+    </row>
+    <row r="307" spans="1:66">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -21119,8 +21601,9 @@
       <c r="BK307" s="3"/>
       <c r="BL307" s="3"/>
       <c r="BM307" s="3"/>
-    </row>
-    <row r="308" spans="1:65">
+      <c r="BN307" s="3"/>
+    </row>
+    <row r="308" spans="1:66">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -21186,8 +21669,9 @@
       <c r="BK308" s="3"/>
       <c r="BL308" s="3"/>
       <c r="BM308" s="3"/>
-    </row>
-    <row r="309" spans="1:65">
+      <c r="BN308" s="3"/>
+    </row>
+    <row r="309" spans="1:66">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -21253,8 +21737,9 @@
       <c r="BK309" s="3"/>
       <c r="BL309" s="3"/>
       <c r="BM309" s="3"/>
-    </row>
-    <row r="310" spans="1:65">
+      <c r="BN309" s="3"/>
+    </row>
+    <row r="310" spans="1:66">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -21320,8 +21805,9 @@
       <c r="BK310" s="3"/>
       <c r="BL310" s="3"/>
       <c r="BM310" s="3"/>
-    </row>
-    <row r="311" spans="1:65">
+      <c r="BN310" s="3"/>
+    </row>
+    <row r="311" spans="1:66">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -21387,8 +21873,9 @@
       <c r="BK311" s="3"/>
       <c r="BL311" s="3"/>
       <c r="BM311" s="3"/>
-    </row>
-    <row r="312" spans="1:65">
+      <c r="BN311" s="3"/>
+    </row>
+    <row r="312" spans="1:66">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -21454,8 +21941,9 @@
       <c r="BK312" s="3"/>
       <c r="BL312" s="3"/>
       <c r="BM312" s="3"/>
-    </row>
-    <row r="313" spans="1:65">
+      <c r="BN312" s="3"/>
+    </row>
+    <row r="313" spans="1:66">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -21521,8 +22009,9 @@
       <c r="BK313" s="3"/>
       <c r="BL313" s="3"/>
       <c r="BM313" s="3"/>
-    </row>
-    <row r="314" spans="1:65">
+      <c r="BN313" s="3"/>
+    </row>
+    <row r="314" spans="1:66">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -21588,8 +22077,9 @@
       <c r="BK314" s="3"/>
       <c r="BL314" s="3"/>
       <c r="BM314" s="3"/>
-    </row>
-    <row r="315" spans="1:65">
+      <c r="BN314" s="3"/>
+    </row>
+    <row r="315" spans="1:66">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -21655,8 +22145,9 @@
       <c r="BK315" s="3"/>
       <c r="BL315" s="3"/>
       <c r="BM315" s="3"/>
-    </row>
-    <row r="316" spans="1:65">
+      <c r="BN315" s="3"/>
+    </row>
+    <row r="316" spans="1:66">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -21722,8 +22213,9 @@
       <c r="BK316" s="3"/>
       <c r="BL316" s="3"/>
       <c r="BM316" s="3"/>
-    </row>
-    <row r="317" spans="1:65">
+      <c r="BN316" s="3"/>
+    </row>
+    <row r="317" spans="1:66">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -21789,8 +22281,9 @@
       <c r="BK317" s="3"/>
       <c r="BL317" s="3"/>
       <c r="BM317" s="3"/>
-    </row>
-    <row r="318" spans="1:65">
+      <c r="BN317" s="3"/>
+    </row>
+    <row r="318" spans="1:66">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -21856,8 +22349,9 @@
       <c r="BK318" s="3"/>
       <c r="BL318" s="3"/>
       <c r="BM318" s="3"/>
-    </row>
-    <row r="319" spans="1:65">
+      <c r="BN318" s="3"/>
+    </row>
+    <row r="319" spans="1:66">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -21923,8 +22417,9 @@
       <c r="BK319" s="3"/>
       <c r="BL319" s="3"/>
       <c r="BM319" s="3"/>
-    </row>
-    <row r="320" spans="1:65">
+      <c r="BN319" s="3"/>
+    </row>
+    <row r="320" spans="1:66">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -21990,8 +22485,9 @@
       <c r="BK320" s="3"/>
       <c r="BL320" s="3"/>
       <c r="BM320" s="3"/>
-    </row>
-    <row r="321" spans="1:65">
+      <c r="BN320" s="3"/>
+    </row>
+    <row r="321" spans="1:66">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -22057,8 +22553,9 @@
       <c r="BK321" s="3"/>
       <c r="BL321" s="3"/>
       <c r="BM321" s="3"/>
-    </row>
-    <row r="322" spans="1:65">
+      <c r="BN321" s="3"/>
+    </row>
+    <row r="322" spans="1:66">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -22124,8 +22621,9 @@
       <c r="BK322" s="3"/>
       <c r="BL322" s="3"/>
       <c r="BM322" s="3"/>
-    </row>
-    <row r="323" spans="1:65">
+      <c r="BN322" s="3"/>
+    </row>
+    <row r="323" spans="1:66">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -22191,8 +22689,9 @@
       <c r="BK323" s="3"/>
       <c r="BL323" s="3"/>
       <c r="BM323" s="3"/>
-    </row>
-    <row r="324" spans="1:65">
+      <c r="BN323" s="3"/>
+    </row>
+    <row r="324" spans="1:66">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -22258,8 +22757,9 @@
       <c r="BK324" s="3"/>
       <c r="BL324" s="3"/>
       <c r="BM324" s="3"/>
-    </row>
-    <row r="325" spans="1:65">
+      <c r="BN324" s="3"/>
+    </row>
+    <row r="325" spans="1:66">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -22325,8 +22825,9 @@
       <c r="BK325" s="3"/>
       <c r="BL325" s="3"/>
       <c r="BM325" s="3"/>
-    </row>
-    <row r="326" spans="1:65">
+      <c r="BN325" s="3"/>
+    </row>
+    <row r="326" spans="1:66">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -22392,8 +22893,9 @@
       <c r="BK326" s="3"/>
       <c r="BL326" s="3"/>
       <c r="BM326" s="3"/>
-    </row>
-    <row r="327" spans="1:65">
+      <c r="BN326" s="3"/>
+    </row>
+    <row r="327" spans="1:66">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -22459,8 +22961,9 @@
       <c r="BK327" s="3"/>
       <c r="BL327" s="3"/>
       <c r="BM327" s="3"/>
-    </row>
-    <row r="328" spans="1:65">
+      <c r="BN327" s="3"/>
+    </row>
+    <row r="328" spans="1:66">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -22526,8 +23029,9 @@
       <c r="BK328" s="3"/>
       <c r="BL328" s="3"/>
       <c r="BM328" s="3"/>
-    </row>
-    <row r="329" spans="1:65">
+      <c r="BN328" s="3"/>
+    </row>
+    <row r="329" spans="1:66">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -22593,8 +23097,9 @@
       <c r="BK329" s="3"/>
       <c r="BL329" s="3"/>
       <c r="BM329" s="3"/>
-    </row>
-    <row r="330" spans="1:65">
+      <c r="BN329" s="3"/>
+    </row>
+    <row r="330" spans="1:66">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -22660,8 +23165,9 @@
       <c r="BK330" s="3"/>
       <c r="BL330" s="3"/>
       <c r="BM330" s="3"/>
-    </row>
-    <row r="331" spans="1:65">
+      <c r="BN330" s="3"/>
+    </row>
+    <row r="331" spans="1:66">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -22727,8 +23233,9 @@
       <c r="BK331" s="3"/>
       <c r="BL331" s="3"/>
       <c r="BM331" s="3"/>
-    </row>
-    <row r="332" spans="1:65">
+      <c r="BN331" s="3"/>
+    </row>
+    <row r="332" spans="1:66">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -22794,8 +23301,9 @@
       <c r="BK332" s="3"/>
       <c r="BL332" s="3"/>
       <c r="BM332" s="3"/>
-    </row>
-    <row r="333" spans="1:65">
+      <c r="BN332" s="3"/>
+    </row>
+    <row r="333" spans="1:66">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -22861,8 +23369,9 @@
       <c r="BK333" s="3"/>
       <c r="BL333" s="3"/>
       <c r="BM333" s="3"/>
-    </row>
-    <row r="334" spans="1:65">
+      <c r="BN333" s="3"/>
+    </row>
+    <row r="334" spans="1:66">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -22928,8 +23437,9 @@
       <c r="BK334" s="3"/>
       <c r="BL334" s="3"/>
       <c r="BM334" s="3"/>
-    </row>
-    <row r="335" spans="1:65">
+      <c r="BN334" s="3"/>
+    </row>
+    <row r="335" spans="1:66">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -22995,8 +23505,9 @@
       <c r="BK335" s="3"/>
       <c r="BL335" s="3"/>
       <c r="BM335" s="3"/>
-    </row>
-    <row r="336" spans="1:65">
+      <c r="BN335" s="3"/>
+    </row>
+    <row r="336" spans="1:66">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -23062,8 +23573,9 @@
       <c r="BK336" s="3"/>
       <c r="BL336" s="3"/>
       <c r="BM336" s="3"/>
-    </row>
-    <row r="337" spans="1:65">
+      <c r="BN336" s="3"/>
+    </row>
+    <row r="337" spans="1:66">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -23129,8 +23641,9 @@
       <c r="BK337" s="3"/>
       <c r="BL337" s="3"/>
       <c r="BM337" s="3"/>
-    </row>
-    <row r="338" spans="1:65">
+      <c r="BN337" s="3"/>
+    </row>
+    <row r="338" spans="1:66">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -23196,8 +23709,9 @@
       <c r="BK338" s="3"/>
       <c r="BL338" s="3"/>
       <c r="BM338" s="3"/>
-    </row>
-    <row r="339" spans="1:65">
+      <c r="BN338" s="3"/>
+    </row>
+    <row r="339" spans="1:66">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -23263,8 +23777,9 @@
       <c r="BK339" s="3"/>
       <c r="BL339" s="3"/>
       <c r="BM339" s="3"/>
-    </row>
-    <row r="340" spans="1:65">
+      <c r="BN339" s="3"/>
+    </row>
+    <row r="340" spans="1:66">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -23330,8 +23845,9 @@
       <c r="BK340" s="3"/>
       <c r="BL340" s="3"/>
       <c r="BM340" s="3"/>
-    </row>
-    <row r="341" spans="1:65">
+      <c r="BN340" s="3"/>
+    </row>
+    <row r="341" spans="1:66">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -23397,8 +23913,9 @@
       <c r="BK341" s="3"/>
       <c r="BL341" s="3"/>
       <c r="BM341" s="3"/>
-    </row>
-    <row r="342" spans="1:65">
+      <c r="BN341" s="3"/>
+    </row>
+    <row r="342" spans="1:66">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -23464,8 +23981,9 @@
       <c r="BK342" s="3"/>
       <c r="BL342" s="3"/>
       <c r="BM342" s="3"/>
-    </row>
-    <row r="343" spans="1:65">
+      <c r="BN342" s="3"/>
+    </row>
+    <row r="343" spans="1:66">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -23531,8 +24049,9 @@
       <c r="BK343" s="3"/>
       <c r="BL343" s="3"/>
       <c r="BM343" s="3"/>
-    </row>
-    <row r="344" spans="1:65">
+      <c r="BN343" s="3"/>
+    </row>
+    <row r="344" spans="1:66">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -23598,8 +24117,9 @@
       <c r="BK344" s="3"/>
       <c r="BL344" s="3"/>
       <c r="BM344" s="3"/>
-    </row>
-    <row r="345" spans="1:65">
+      <c r="BN344" s="3"/>
+    </row>
+    <row r="345" spans="1:66">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -23665,8 +24185,9 @@
       <c r="BK345" s="3"/>
       <c r="BL345" s="3"/>
       <c r="BM345" s="3"/>
-    </row>
-    <row r="346" spans="1:65">
+      <c r="BN345" s="3"/>
+    </row>
+    <row r="346" spans="1:66">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -23732,8 +24253,9 @@
       <c r="BK346" s="3"/>
       <c r="BL346" s="3"/>
       <c r="BM346" s="3"/>
-    </row>
-    <row r="347" spans="1:65">
+      <c r="BN346" s="3"/>
+    </row>
+    <row r="347" spans="1:66">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -23799,8 +24321,9 @@
       <c r="BK347" s="3"/>
       <c r="BL347" s="3"/>
       <c r="BM347" s="3"/>
-    </row>
-    <row r="348" spans="1:65">
+      <c r="BN347" s="3"/>
+    </row>
+    <row r="348" spans="1:66">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -23866,8 +24389,9 @@
       <c r="BK348" s="3"/>
       <c r="BL348" s="3"/>
       <c r="BM348" s="3"/>
-    </row>
-    <row r="349" spans="1:65">
+      <c r="BN348" s="3"/>
+    </row>
+    <row r="349" spans="1:66">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -23933,8 +24457,9 @@
       <c r="BK349" s="3"/>
       <c r="BL349" s="3"/>
       <c r="BM349" s="3"/>
-    </row>
-    <row r="350" spans="1:65">
+      <c r="BN349" s="3"/>
+    </row>
+    <row r="350" spans="1:66">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -24000,8 +24525,9 @@
       <c r="BK350" s="3"/>
       <c r="BL350" s="3"/>
       <c r="BM350" s="3"/>
-    </row>
-    <row r="351" spans="1:65">
+      <c r="BN350" s="3"/>
+    </row>
+    <row r="351" spans="1:66">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -24067,8 +24593,9 @@
       <c r="BK351" s="3"/>
       <c r="BL351" s="3"/>
       <c r="BM351" s="3"/>
-    </row>
-    <row r="352" spans="1:65">
+      <c r="BN351" s="3"/>
+    </row>
+    <row r="352" spans="1:66">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -24134,8 +24661,9 @@
       <c r="BK352" s="3"/>
       <c r="BL352" s="3"/>
       <c r="BM352" s="3"/>
-    </row>
-    <row r="353" spans="1:65">
+      <c r="BN352" s="3"/>
+    </row>
+    <row r="353" spans="1:66">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -24201,8 +24729,9 @@
       <c r="BK353" s="3"/>
       <c r="BL353" s="3"/>
       <c r="BM353" s="3"/>
-    </row>
-    <row r="354" spans="1:65">
+      <c r="BN353" s="3"/>
+    </row>
+    <row r="354" spans="1:66">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -24268,8 +24797,9 @@
       <c r="BK354" s="3"/>
       <c r="BL354" s="3"/>
       <c r="BM354" s="3"/>
-    </row>
-    <row r="355" spans="1:65">
+      <c r="BN354" s="3"/>
+    </row>
+    <row r="355" spans="1:66">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -24335,8 +24865,9 @@
       <c r="BK355" s="3"/>
       <c r="BL355" s="3"/>
       <c r="BM355" s="3"/>
-    </row>
-    <row r="356" spans="1:65">
+      <c r="BN355" s="3"/>
+    </row>
+    <row r="356" spans="1:66">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -24402,8 +24933,9 @@
       <c r="BK356" s="3"/>
       <c r="BL356" s="3"/>
       <c r="BM356" s="3"/>
-    </row>
-    <row r="357" spans="1:65">
+      <c r="BN356" s="3"/>
+    </row>
+    <row r="357" spans="1:66">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -24469,8 +25001,9 @@
       <c r="BK357" s="3"/>
       <c r="BL357" s="3"/>
       <c r="BM357" s="3"/>
-    </row>
-    <row r="358" spans="1:65">
+      <c r="BN357" s="3"/>
+    </row>
+    <row r="358" spans="1:66">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -24536,8 +25069,9 @@
       <c r="BK358" s="3"/>
       <c r="BL358" s="3"/>
       <c r="BM358" s="3"/>
-    </row>
-    <row r="359" spans="1:65">
+      <c r="BN358" s="3"/>
+    </row>
+    <row r="359" spans="1:66">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -24603,8 +25137,9 @@
       <c r="BK359" s="3"/>
       <c r="BL359" s="3"/>
       <c r="BM359" s="3"/>
-    </row>
-    <row r="360" spans="1:65">
+      <c r="BN359" s="3"/>
+    </row>
+    <row r="360" spans="1:66">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -24670,8 +25205,9 @@
       <c r="BK360" s="3"/>
       <c r="BL360" s="3"/>
       <c r="BM360" s="3"/>
-    </row>
-    <row r="361" spans="1:65">
+      <c r="BN360" s="3"/>
+    </row>
+    <row r="361" spans="1:66">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -24737,8 +25273,9 @@
       <c r="BK361" s="3"/>
       <c r="BL361" s="3"/>
       <c r="BM361" s="3"/>
-    </row>
-    <row r="362" spans="1:65">
+      <c r="BN361" s="3"/>
+    </row>
+    <row r="362" spans="1:66">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -24804,8 +25341,9 @@
       <c r="BK362" s="3"/>
       <c r="BL362" s="3"/>
       <c r="BM362" s="3"/>
-    </row>
-    <row r="363" spans="1:65">
+      <c r="BN362" s="3"/>
+    </row>
+    <row r="363" spans="1:66">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -24871,8 +25409,9 @@
       <c r="BK363" s="3"/>
       <c r="BL363" s="3"/>
       <c r="BM363" s="3"/>
-    </row>
-    <row r="364" spans="1:65">
+      <c r="BN363" s="3"/>
+    </row>
+    <row r="364" spans="1:66">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -24938,8 +25477,9 @@
       <c r="BK364" s="3"/>
       <c r="BL364" s="3"/>
       <c r="BM364" s="3"/>
-    </row>
-    <row r="365" spans="1:65">
+      <c r="BN364" s="3"/>
+    </row>
+    <row r="365" spans="1:66">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -25005,8 +25545,9 @@
       <c r="BK365" s="3"/>
       <c r="BL365" s="3"/>
       <c r="BM365" s="3"/>
-    </row>
-    <row r="366" spans="1:65">
+      <c r="BN365" s="3"/>
+    </row>
+    <row r="366" spans="1:66">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -25072,8 +25613,9 @@
       <c r="BK366" s="3"/>
       <c r="BL366" s="3"/>
       <c r="BM366" s="3"/>
-    </row>
-    <row r="367" spans="1:65">
+      <c r="BN366" s="3"/>
+    </row>
+    <row r="367" spans="1:66">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -25139,8 +25681,9 @@
       <c r="BK367" s="3"/>
       <c r="BL367" s="3"/>
       <c r="BM367" s="3"/>
-    </row>
-    <row r="368" spans="1:65">
+      <c r="BN367" s="3"/>
+    </row>
+    <row r="368" spans="1:66">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -25206,8 +25749,9 @@
       <c r="BK368" s="3"/>
       <c r="BL368" s="3"/>
       <c r="BM368" s="3"/>
-    </row>
-    <row r="369" spans="1:65">
+      <c r="BN368" s="3"/>
+    </row>
+    <row r="369" spans="1:66">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -25273,8 +25817,9 @@
       <c r="BK369" s="3"/>
       <c r="BL369" s="3"/>
       <c r="BM369" s="3"/>
-    </row>
-    <row r="370" spans="1:65">
+      <c r="BN369" s="3"/>
+    </row>
+    <row r="370" spans="1:66">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -25340,8 +25885,9 @@
       <c r="BK370" s="3"/>
       <c r="BL370" s="3"/>
       <c r="BM370" s="3"/>
-    </row>
-    <row r="371" spans="1:65">
+      <c r="BN370" s="3"/>
+    </row>
+    <row r="371" spans="1:66">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -25407,8 +25953,9 @@
       <c r="BK371" s="3"/>
       <c r="BL371" s="3"/>
       <c r="BM371" s="3"/>
-    </row>
-    <row r="372" spans="1:65">
+      <c r="BN371" s="3"/>
+    </row>
+    <row r="372" spans="1:66">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -25474,8 +26021,9 @@
       <c r="BK372" s="3"/>
       <c r="BL372" s="3"/>
       <c r="BM372" s="3"/>
-    </row>
-    <row r="373" spans="1:65">
+      <c r="BN372" s="3"/>
+    </row>
+    <row r="373" spans="1:66">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -25541,8 +26089,9 @@
       <c r="BK373" s="3"/>
       <c r="BL373" s="3"/>
       <c r="BM373" s="3"/>
-    </row>
-    <row r="374" spans="1:65">
+      <c r="BN373" s="3"/>
+    </row>
+    <row r="374" spans="1:66">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -25608,8 +26157,9 @@
       <c r="BK374" s="3"/>
       <c r="BL374" s="3"/>
       <c r="BM374" s="3"/>
-    </row>
-    <row r="375" spans="1:65">
+      <c r="BN374" s="3"/>
+    </row>
+    <row r="375" spans="1:66">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -25675,8 +26225,9 @@
       <c r="BK375" s="3"/>
       <c r="BL375" s="3"/>
       <c r="BM375" s="3"/>
-    </row>
-    <row r="376" spans="1:65">
+      <c r="BN375" s="3"/>
+    </row>
+    <row r="376" spans="1:66">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -25742,8 +26293,9 @@
       <c r="BK376" s="3"/>
       <c r="BL376" s="3"/>
       <c r="BM376" s="3"/>
-    </row>
-    <row r="377" spans="1:65">
+      <c r="BN376" s="3"/>
+    </row>
+    <row r="377" spans="1:66">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -25809,8 +26361,9 @@
       <c r="BK377" s="3"/>
       <c r="BL377" s="3"/>
       <c r="BM377" s="3"/>
-    </row>
-    <row r="378" spans="1:65">
+      <c r="BN377" s="3"/>
+    </row>
+    <row r="378" spans="1:66">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -25876,8 +26429,9 @@
       <c r="BK378" s="3"/>
       <c r="BL378" s="3"/>
       <c r="BM378" s="3"/>
-    </row>
-    <row r="379" spans="1:65">
+      <c r="BN378" s="3"/>
+    </row>
+    <row r="379" spans="1:66">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -25943,8 +26497,9 @@
       <c r="BK379" s="3"/>
       <c r="BL379" s="3"/>
       <c r="BM379" s="3"/>
-    </row>
-    <row r="380" spans="1:65">
+      <c r="BN379" s="3"/>
+    </row>
+    <row r="380" spans="1:66">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -26010,8 +26565,9 @@
       <c r="BK380" s="3"/>
       <c r="BL380" s="3"/>
       <c r="BM380" s="3"/>
-    </row>
-    <row r="381" spans="1:65">
+      <c r="BN380" s="3"/>
+    </row>
+    <row r="381" spans="1:66">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -26077,8 +26633,9 @@
       <c r="BK381" s="3"/>
       <c r="BL381" s="3"/>
       <c r="BM381" s="3"/>
-    </row>
-    <row r="382" spans="1:65">
+      <c r="BN381" s="3"/>
+    </row>
+    <row r="382" spans="1:66">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -26144,8 +26701,9 @@
       <c r="BK382" s="3"/>
       <c r="BL382" s="3"/>
       <c r="BM382" s="3"/>
-    </row>
-    <row r="383" spans="1:65">
+      <c r="BN382" s="3"/>
+    </row>
+    <row r="383" spans="1:66">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -26211,8 +26769,9 @@
       <c r="BK383" s="3"/>
       <c r="BL383" s="3"/>
       <c r="BM383" s="3"/>
-    </row>
-    <row r="384" spans="1:65">
+      <c r="BN383" s="3"/>
+    </row>
+    <row r="384" spans="1:66">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -26278,8 +26837,9 @@
       <c r="BK384" s="3"/>
       <c r="BL384" s="3"/>
       <c r="BM384" s="3"/>
-    </row>
-    <row r="385" spans="1:65">
+      <c r="BN384" s="3"/>
+    </row>
+    <row r="385" spans="1:66">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -26345,8 +26905,9 @@
       <c r="BK385" s="3"/>
       <c r="BL385" s="3"/>
       <c r="BM385" s="3"/>
-    </row>
-    <row r="386" spans="1:65">
+      <c r="BN385" s="3"/>
+    </row>
+    <row r="386" spans="1:66">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -26412,8 +26973,9 @@
       <c r="BK386" s="3"/>
       <c r="BL386" s="3"/>
       <c r="BM386" s="3"/>
-    </row>
-    <row r="387" spans="1:65">
+      <c r="BN386" s="3"/>
+    </row>
+    <row r="387" spans="1:66">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -26479,8 +27041,9 @@
       <c r="BK387" s="3"/>
       <c r="BL387" s="3"/>
       <c r="BM387" s="3"/>
-    </row>
-    <row r="388" spans="1:65">
+      <c r="BN387" s="3"/>
+    </row>
+    <row r="388" spans="1:66">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -26546,8 +27109,9 @@
       <c r="BK388" s="3"/>
       <c r="BL388" s="3"/>
       <c r="BM388" s="3"/>
-    </row>
-    <row r="389" spans="1:65">
+      <c r="BN388" s="3"/>
+    </row>
+    <row r="389" spans="1:66">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -26613,8 +27177,9 @@
       <c r="BK389" s="3"/>
       <c r="BL389" s="3"/>
       <c r="BM389" s="3"/>
-    </row>
-    <row r="390" spans="1:65">
+      <c r="BN389" s="3"/>
+    </row>
+    <row r="390" spans="1:66">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -26680,8 +27245,9 @@
       <c r="BK390" s="3"/>
       <c r="BL390" s="3"/>
       <c r="BM390" s="3"/>
-    </row>
-    <row r="391" spans="1:65">
+      <c r="BN390" s="3"/>
+    </row>
+    <row r="391" spans="1:66">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -26747,8 +27313,9 @@
       <c r="BK391" s="3"/>
       <c r="BL391" s="3"/>
       <c r="BM391" s="3"/>
-    </row>
-    <row r="392" spans="1:65">
+      <c r="BN391" s="3"/>
+    </row>
+    <row r="392" spans="1:66">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -26814,8 +27381,9 @@
       <c r="BK392" s="3"/>
       <c r="BL392" s="3"/>
       <c r="BM392" s="3"/>
-    </row>
-    <row r="393" spans="1:65">
+      <c r="BN392" s="3"/>
+    </row>
+    <row r="393" spans="1:66">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -26881,8 +27449,9 @@
       <c r="BK393" s="3"/>
       <c r="BL393" s="3"/>
       <c r="BM393" s="3"/>
-    </row>
-    <row r="394" spans="1:65">
+      <c r="BN393" s="3"/>
+    </row>
+    <row r="394" spans="1:66">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -26948,8 +27517,9 @@
       <c r="BK394" s="3"/>
       <c r="BL394" s="3"/>
       <c r="BM394" s="3"/>
-    </row>
-    <row r="395" spans="1:65">
+      <c r="BN394" s="3"/>
+    </row>
+    <row r="395" spans="1:66">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -27015,8 +27585,9 @@
       <c r="BK395" s="3"/>
       <c r="BL395" s="3"/>
       <c r="BM395" s="3"/>
-    </row>
-    <row r="396" spans="1:65">
+      <c r="BN395" s="3"/>
+    </row>
+    <row r="396" spans="1:66">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -27082,8 +27653,9 @@
       <c r="BK396" s="3"/>
       <c r="BL396" s="3"/>
       <c r="BM396" s="3"/>
-    </row>
-    <row r="397" spans="1:65">
+      <c r="BN396" s="3"/>
+    </row>
+    <row r="397" spans="1:66">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -27149,8 +27721,9 @@
       <c r="BK397" s="3"/>
       <c r="BL397" s="3"/>
       <c r="BM397" s="3"/>
-    </row>
-    <row r="398" spans="1:65">
+      <c r="BN397" s="3"/>
+    </row>
+    <row r="398" spans="1:66">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -27216,8 +27789,9 @@
       <c r="BK398" s="3"/>
       <c r="BL398" s="3"/>
       <c r="BM398" s="3"/>
-    </row>
-    <row r="399" spans="1:65">
+      <c r="BN398" s="3"/>
+    </row>
+    <row r="399" spans="1:66">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -27283,8 +27857,9 @@
       <c r="BK399" s="3"/>
       <c r="BL399" s="3"/>
       <c r="BM399" s="3"/>
-    </row>
-    <row r="400" spans="1:65">
+      <c r="BN399" s="3"/>
+    </row>
+    <row r="400" spans="1:66">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -27350,8 +27925,9 @@
       <c r="BK400" s="3"/>
       <c r="BL400" s="3"/>
       <c r="BM400" s="3"/>
-    </row>
-    <row r="401" spans="1:65">
+      <c r="BN400" s="3"/>
+    </row>
+    <row r="401" spans="1:66">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -27417,8 +27993,9 @@
       <c r="BK401" s="3"/>
       <c r="BL401" s="3"/>
       <c r="BM401" s="3"/>
-    </row>
-    <row r="402" spans="1:65">
+      <c r="BN401" s="3"/>
+    </row>
+    <row r="402" spans="1:66">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -27484,8 +28061,9 @@
       <c r="BK402" s="3"/>
       <c r="BL402" s="3"/>
       <c r="BM402" s="3"/>
-    </row>
-    <row r="403" spans="1:65">
+      <c r="BN402" s="3"/>
+    </row>
+    <row r="403" spans="1:66">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -27551,8 +28129,9 @@
       <c r="BK403" s="3"/>
       <c r="BL403" s="3"/>
       <c r="BM403" s="3"/>
-    </row>
-    <row r="404" spans="1:65">
+      <c r="BN403" s="3"/>
+    </row>
+    <row r="404" spans="1:66">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -27618,8 +28197,9 @@
       <c r="BK404" s="3"/>
       <c r="BL404" s="3"/>
       <c r="BM404" s="3"/>
-    </row>
-    <row r="405" spans="1:65">
+      <c r="BN404" s="3"/>
+    </row>
+    <row r="405" spans="1:66">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -27685,8 +28265,9 @@
       <c r="BK405" s="3"/>
       <c r="BL405" s="3"/>
       <c r="BM405" s="3"/>
-    </row>
-    <row r="406" spans="1:65">
+      <c r="BN405" s="3"/>
+    </row>
+    <row r="406" spans="1:66">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -27752,8 +28333,9 @@
       <c r="BK406" s="3"/>
       <c r="BL406" s="3"/>
       <c r="BM406" s="3"/>
-    </row>
-    <row r="407" spans="1:65">
+      <c r="BN406" s="3"/>
+    </row>
+    <row r="407" spans="1:66">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -27819,8 +28401,9 @@
       <c r="BK407" s="3"/>
       <c r="BL407" s="3"/>
       <c r="BM407" s="3"/>
-    </row>
-    <row r="408" spans="1:65">
+      <c r="BN407" s="3"/>
+    </row>
+    <row r="408" spans="1:66">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -27886,8 +28469,9 @@
       <c r="BK408" s="3"/>
       <c r="BL408" s="3"/>
       <c r="BM408" s="3"/>
-    </row>
-    <row r="409" spans="1:65">
+      <c r="BN408" s="3"/>
+    </row>
+    <row r="409" spans="1:66">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -27953,8 +28537,9 @@
       <c r="BK409" s="3"/>
       <c r="BL409" s="3"/>
       <c r="BM409" s="3"/>
-    </row>
-    <row r="410" spans="1:65">
+      <c r="BN409" s="3"/>
+    </row>
+    <row r="410" spans="1:66">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -28020,8 +28605,9 @@
       <c r="BK410" s="3"/>
       <c r="BL410" s="3"/>
       <c r="BM410" s="3"/>
-    </row>
-    <row r="411" spans="1:65">
+      <c r="BN410" s="3"/>
+    </row>
+    <row r="411" spans="1:66">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -28087,8 +28673,9 @@
       <c r="BK411" s="3"/>
       <c r="BL411" s="3"/>
       <c r="BM411" s="3"/>
-    </row>
-    <row r="412" spans="1:65">
+      <c r="BN411" s="3"/>
+    </row>
+    <row r="412" spans="1:66">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -28154,8 +28741,9 @@
       <c r="BK412" s="3"/>
       <c r="BL412" s="3"/>
       <c r="BM412" s="3"/>
-    </row>
-    <row r="413" spans="1:65">
+      <c r="BN412" s="3"/>
+    </row>
+    <row r="413" spans="1:66">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -28221,8 +28809,9 @@
       <c r="BK413" s="3"/>
       <c r="BL413" s="3"/>
       <c r="BM413" s="3"/>
-    </row>
-    <row r="414" spans="1:65">
+      <c r="BN413" s="3"/>
+    </row>
+    <row r="414" spans="1:66">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -28288,8 +28877,9 @@
       <c r="BK414" s="3"/>
       <c r="BL414" s="3"/>
       <c r="BM414" s="3"/>
-    </row>
-    <row r="415" spans="1:65">
+      <c r="BN414" s="3"/>
+    </row>
+    <row r="415" spans="1:66">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -28355,8 +28945,9 @@
       <c r="BK415" s="3"/>
       <c r="BL415" s="3"/>
       <c r="BM415" s="3"/>
-    </row>
-    <row r="416" spans="1:65">
+      <c r="BN415" s="3"/>
+    </row>
+    <row r="416" spans="1:66">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -28422,8 +29013,9 @@
       <c r="BK416" s="3"/>
       <c r="BL416" s="3"/>
       <c r="BM416" s="3"/>
-    </row>
-    <row r="417" spans="1:65">
+      <c r="BN416" s="3"/>
+    </row>
+    <row r="417" spans="1:66">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -28489,8 +29081,9 @@
       <c r="BK417" s="3"/>
       <c r="BL417" s="3"/>
       <c r="BM417" s="3"/>
-    </row>
-    <row r="418" spans="1:65">
+      <c r="BN417" s="3"/>
+    </row>
+    <row r="418" spans="1:66">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -28556,8 +29149,9 @@
       <c r="BK418" s="3"/>
       <c r="BL418" s="3"/>
       <c r="BM418" s="3"/>
-    </row>
-    <row r="419" spans="1:65">
+      <c r="BN418" s="3"/>
+    </row>
+    <row r="419" spans="1:66">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -28623,8 +29217,9 @@
       <c r="BK419" s="3"/>
       <c r="BL419" s="3"/>
       <c r="BM419" s="3"/>
-    </row>
-    <row r="420" spans="1:65">
+      <c r="BN419" s="3"/>
+    </row>
+    <row r="420" spans="1:66">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -28690,8 +29285,9 @@
       <c r="BK420" s="3"/>
       <c r="BL420" s="3"/>
       <c r="BM420" s="3"/>
-    </row>
-    <row r="421" spans="1:65">
+      <c r="BN420" s="3"/>
+    </row>
+    <row r="421" spans="1:66">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -28757,8 +29353,9 @@
       <c r="BK421" s="3"/>
       <c r="BL421" s="3"/>
       <c r="BM421" s="3"/>
-    </row>
-    <row r="422" spans="1:65">
+      <c r="BN421" s="3"/>
+    </row>
+    <row r="422" spans="1:66">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -28824,8 +29421,9 @@
       <c r="BK422" s="3"/>
       <c r="BL422" s="3"/>
       <c r="BM422" s="3"/>
-    </row>
-    <row r="423" spans="1:65">
+      <c r="BN422" s="3"/>
+    </row>
+    <row r="423" spans="1:66">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -28891,8 +29489,9 @@
       <c r="BK423" s="3"/>
       <c r="BL423" s="3"/>
       <c r="BM423" s="3"/>
-    </row>
-    <row r="424" spans="1:65">
+      <c r="BN423" s="3"/>
+    </row>
+    <row r="424" spans="1:66">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -28958,8 +29557,9 @@
       <c r="BK424" s="3"/>
       <c r="BL424" s="3"/>
       <c r="BM424" s="3"/>
-    </row>
-    <row r="425" spans="1:65">
+      <c r="BN424" s="3"/>
+    </row>
+    <row r="425" spans="1:66">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -29025,8 +29625,9 @@
       <c r="BK425" s="3"/>
       <c r="BL425" s="3"/>
       <c r="BM425" s="3"/>
-    </row>
-    <row r="426" spans="1:65">
+      <c r="BN425" s="3"/>
+    </row>
+    <row r="426" spans="1:66">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -29092,8 +29693,9 @@
       <c r="BK426" s="3"/>
       <c r="BL426" s="3"/>
       <c r="BM426" s="3"/>
-    </row>
-    <row r="427" spans="1:65">
+      <c r="BN426" s="3"/>
+    </row>
+    <row r="427" spans="1:66">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -29159,8 +29761,9 @@
       <c r="BK427" s="3"/>
       <c r="BL427" s="3"/>
       <c r="BM427" s="3"/>
-    </row>
-    <row r="428" spans="1:65">
+      <c r="BN427" s="3"/>
+    </row>
+    <row r="428" spans="1:66">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -29226,8 +29829,9 @@
       <c r="BK428" s="3"/>
       <c r="BL428" s="3"/>
       <c r="BM428" s="3"/>
-    </row>
-    <row r="429" spans="1:65">
+      <c r="BN428" s="3"/>
+    </row>
+    <row r="429" spans="1:66">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -29293,8 +29897,9 @@
       <c r="BK429" s="3"/>
       <c r="BL429" s="3"/>
       <c r="BM429" s="3"/>
-    </row>
-    <row r="430" spans="1:65">
+      <c r="BN429" s="3"/>
+    </row>
+    <row r="430" spans="1:66">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -29360,8 +29965,9 @@
       <c r="BK430" s="3"/>
       <c r="BL430" s="3"/>
       <c r="BM430" s="3"/>
-    </row>
-    <row r="431" spans="1:65">
+      <c r="BN430" s="3"/>
+    </row>
+    <row r="431" spans="1:66">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -29427,8 +30033,9 @@
       <c r="BK431" s="3"/>
       <c r="BL431" s="3"/>
       <c r="BM431" s="3"/>
-    </row>
-    <row r="432" spans="1:65">
+      <c r="BN431" s="3"/>
+    </row>
+    <row r="432" spans="1:66">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -29494,8 +30101,9 @@
       <c r="BK432" s="3"/>
       <c r="BL432" s="3"/>
       <c r="BM432" s="3"/>
-    </row>
-    <row r="433" spans="1:65">
+      <c r="BN432" s="3"/>
+    </row>
+    <row r="433" spans="1:66">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -29561,8 +30169,9 @@
       <c r="BK433" s="3"/>
       <c r="BL433" s="3"/>
       <c r="BM433" s="3"/>
-    </row>
-    <row r="434" spans="1:65">
+      <c r="BN433" s="3"/>
+    </row>
+    <row r="434" spans="1:66">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -29628,8 +30237,9 @@
       <c r="BK434" s="3"/>
       <c r="BL434" s="3"/>
       <c r="BM434" s="3"/>
-    </row>
-    <row r="435" spans="1:65">
+      <c r="BN434" s="3"/>
+    </row>
+    <row r="435" spans="1:66">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -29695,8 +30305,9 @@
       <c r="BK435" s="3"/>
       <c r="BL435" s="3"/>
       <c r="BM435" s="3"/>
-    </row>
-    <row r="436" spans="1:65">
+      <c r="BN435" s="3"/>
+    </row>
+    <row r="436" spans="1:66">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -29762,8 +30373,9 @@
       <c r="BK436" s="3"/>
       <c r="BL436" s="3"/>
       <c r="BM436" s="3"/>
-    </row>
-    <row r="437" spans="1:65">
+      <c r="BN436" s="3"/>
+    </row>
+    <row r="437" spans="1:66">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -29829,8 +30441,9 @@
       <c r="BK437" s="3"/>
       <c r="BL437" s="3"/>
       <c r="BM437" s="3"/>
-    </row>
-    <row r="438" spans="1:65">
+      <c r="BN437" s="3"/>
+    </row>
+    <row r="438" spans="1:66">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -29896,8 +30509,9 @@
       <c r="BK438" s="3"/>
       <c r="BL438" s="3"/>
       <c r="BM438" s="3"/>
-    </row>
-    <row r="439" spans="1:65">
+      <c r="BN438" s="3"/>
+    </row>
+    <row r="439" spans="1:66">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -29963,8 +30577,9 @@
       <c r="BK439" s="3"/>
       <c r="BL439" s="3"/>
       <c r="BM439" s="3"/>
-    </row>
-    <row r="440" spans="1:65">
+      <c r="BN439" s="3"/>
+    </row>
+    <row r="440" spans="1:66">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -30030,8 +30645,9 @@
       <c r="BK440" s="3"/>
       <c r="BL440" s="3"/>
       <c r="BM440" s="3"/>
-    </row>
-    <row r="441" spans="1:65">
+      <c r="BN440" s="3"/>
+    </row>
+    <row r="441" spans="1:66">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -30097,8 +30713,9 @@
       <c r="BK441" s="3"/>
       <c r="BL441" s="3"/>
       <c r="BM441" s="3"/>
-    </row>
-    <row r="442" spans="1:65">
+      <c r="BN441" s="3"/>
+    </row>
+    <row r="442" spans="1:66">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -30164,8 +30781,9 @@
       <c r="BK442" s="3"/>
       <c r="BL442" s="3"/>
       <c r="BM442" s="3"/>
-    </row>
-    <row r="443" spans="1:65">
+      <c r="BN442" s="3"/>
+    </row>
+    <row r="443" spans="1:66">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -30231,8 +30849,9 @@
       <c r="BK443" s="3"/>
       <c r="BL443" s="3"/>
       <c r="BM443" s="3"/>
-    </row>
-    <row r="444" spans="1:65">
+      <c r="BN443" s="3"/>
+    </row>
+    <row r="444" spans="1:66">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -30298,8 +30917,9 @@
       <c r="BK444" s="3"/>
       <c r="BL444" s="3"/>
       <c r="BM444" s="3"/>
-    </row>
-    <row r="445" spans="1:65">
+      <c r="BN444" s="3"/>
+    </row>
+    <row r="445" spans="1:66">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -30365,8 +30985,9 @@
       <c r="BK445" s="3"/>
       <c r="BL445" s="3"/>
       <c r="BM445" s="3"/>
-    </row>
-    <row r="446" spans="1:65">
+      <c r="BN445" s="3"/>
+    </row>
+    <row r="446" spans="1:66">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -30432,8 +31053,9 @@
       <c r="BK446" s="3"/>
       <c r="BL446" s="3"/>
       <c r="BM446" s="3"/>
-    </row>
-    <row r="447" spans="1:65">
+      <c r="BN446" s="3"/>
+    </row>
+    <row r="447" spans="1:66">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -30499,8 +31121,9 @@
       <c r="BK447" s="3"/>
       <c r="BL447" s="3"/>
       <c r="BM447" s="3"/>
-    </row>
-    <row r="448" spans="1:65">
+      <c r="BN447" s="3"/>
+    </row>
+    <row r="448" spans="1:66">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -30566,8 +31189,9 @@
       <c r="BK448" s="3"/>
       <c r="BL448" s="3"/>
       <c r="BM448" s="3"/>
-    </row>
-    <row r="449" spans="1:65">
+      <c r="BN448" s="3"/>
+    </row>
+    <row r="449" spans="1:66">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -30633,8 +31257,9 @@
       <c r="BK449" s="3"/>
       <c r="BL449" s="3"/>
       <c r="BM449" s="3"/>
-    </row>
-    <row r="450" spans="1:65">
+      <c r="BN449" s="3"/>
+    </row>
+    <row r="450" spans="1:66">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -30700,8 +31325,9 @@
       <c r="BK450" s="3"/>
       <c r="BL450" s="3"/>
       <c r="BM450" s="3"/>
-    </row>
-    <row r="451" spans="1:65">
+      <c r="BN450" s="3"/>
+    </row>
+    <row r="451" spans="1:66">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -30767,8 +31393,9 @@
       <c r="BK451" s="3"/>
       <c r="BL451" s="3"/>
       <c r="BM451" s="3"/>
-    </row>
-    <row r="452" spans="1:65">
+      <c r="BN451" s="3"/>
+    </row>
+    <row r="452" spans="1:66">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -30834,8 +31461,9 @@
       <c r="BK452" s="3"/>
       <c r="BL452" s="3"/>
       <c r="BM452" s="3"/>
-    </row>
-    <row r="453" spans="1:65">
+      <c r="BN452" s="3"/>
+    </row>
+    <row r="453" spans="1:66">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -30901,8 +31529,9 @@
       <c r="BK453" s="3"/>
       <c r="BL453" s="3"/>
       <c r="BM453" s="3"/>
-    </row>
-    <row r="454" spans="1:65">
+      <c r="BN453" s="3"/>
+    </row>
+    <row r="454" spans="1:66">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -30968,8 +31597,9 @@
       <c r="BK454" s="3"/>
       <c r="BL454" s="3"/>
       <c r="BM454" s="3"/>
-    </row>
-    <row r="455" spans="1:65">
+      <c r="BN454" s="3"/>
+    </row>
+    <row r="455" spans="1:66">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -31035,8 +31665,9 @@
       <c r="BK455" s="3"/>
       <c r="BL455" s="3"/>
       <c r="BM455" s="3"/>
-    </row>
-    <row r="456" spans="1:65">
+      <c r="BN455" s="3"/>
+    </row>
+    <row r="456" spans="1:66">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -31102,8 +31733,9 @@
       <c r="BK456" s="3"/>
       <c r="BL456" s="3"/>
       <c r="BM456" s="3"/>
-    </row>
-    <row r="457" spans="1:65">
+      <c r="BN456" s="3"/>
+    </row>
+    <row r="457" spans="1:66">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -31169,8 +31801,9 @@
       <c r="BK457" s="3"/>
       <c r="BL457" s="3"/>
       <c r="BM457" s="3"/>
-    </row>
-    <row r="458" spans="1:65">
+      <c r="BN457" s="3"/>
+    </row>
+    <row r="458" spans="1:66">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -31236,8 +31869,9 @@
       <c r="BK458" s="3"/>
       <c r="BL458" s="3"/>
       <c r="BM458" s="3"/>
-    </row>
-    <row r="459" spans="1:65">
+      <c r="BN458" s="3"/>
+    </row>
+    <row r="459" spans="1:66">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -31303,8 +31937,9 @@
       <c r="BK459" s="3"/>
       <c r="BL459" s="3"/>
       <c r="BM459" s="3"/>
-    </row>
-    <row r="460" spans="1:65">
+      <c r="BN459" s="3"/>
+    </row>
+    <row r="460" spans="1:66">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -31370,8 +32005,9 @@
       <c r="BK460" s="3"/>
       <c r="BL460" s="3"/>
       <c r="BM460" s="3"/>
-    </row>
-    <row r="461" spans="1:65">
+      <c r="BN460" s="3"/>
+    </row>
+    <row r="461" spans="1:66">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -31437,8 +32073,9 @@
       <c r="BK461" s="3"/>
       <c r="BL461" s="3"/>
       <c r="BM461" s="3"/>
-    </row>
-    <row r="462" spans="1:65">
+      <c r="BN461" s="3"/>
+    </row>
+    <row r="462" spans="1:66">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -31504,8 +32141,9 @@
       <c r="BK462" s="3"/>
       <c r="BL462" s="3"/>
       <c r="BM462" s="3"/>
-    </row>
-    <row r="463" spans="1:65">
+      <c r="BN462" s="3"/>
+    </row>
+    <row r="463" spans="1:66">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -31571,8 +32209,9 @@
       <c r="BK463" s="3"/>
       <c r="BL463" s="3"/>
       <c r="BM463" s="3"/>
-    </row>
-    <row r="464" spans="1:65">
+      <c r="BN463" s="3"/>
+    </row>
+    <row r="464" spans="1:66">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -31638,8 +32277,9 @@
       <c r="BK464" s="3"/>
       <c r="BL464" s="3"/>
       <c r="BM464" s="3"/>
-    </row>
-    <row r="465" spans="1:65">
+      <c r="BN464" s="3"/>
+    </row>
+    <row r="465" spans="1:66">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -31705,8 +32345,9 @@
       <c r="BK465" s="3"/>
       <c r="BL465" s="3"/>
       <c r="BM465" s="3"/>
-    </row>
-    <row r="466" spans="1:65">
+      <c r="BN465" s="3"/>
+    </row>
+    <row r="466" spans="1:66">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -31772,8 +32413,9 @@
       <c r="BK466" s="3"/>
       <c r="BL466" s="3"/>
       <c r="BM466" s="3"/>
-    </row>
-    <row r="467" spans="1:65">
+      <c r="BN466" s="3"/>
+    </row>
+    <row r="467" spans="1:66">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -31839,8 +32481,9 @@
       <c r="BK467" s="3"/>
       <c r="BL467" s="3"/>
       <c r="BM467" s="3"/>
-    </row>
-    <row r="468" spans="1:65">
+      <c r="BN467" s="3"/>
+    </row>
+    <row r="468" spans="1:66">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -31906,8 +32549,9 @@
       <c r="BK468" s="3"/>
       <c r="BL468" s="3"/>
       <c r="BM468" s="3"/>
-    </row>
-    <row r="469" spans="1:65">
+      <c r="BN468" s="3"/>
+    </row>
+    <row r="469" spans="1:66">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -31973,8 +32617,9 @@
       <c r="BK469" s="3"/>
       <c r="BL469" s="3"/>
       <c r="BM469" s="3"/>
-    </row>
-    <row r="470" spans="1:65">
+      <c r="BN469" s="3"/>
+    </row>
+    <row r="470" spans="1:66">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -32040,8 +32685,9 @@
       <c r="BK470" s="3"/>
       <c r="BL470" s="3"/>
       <c r="BM470" s="3"/>
-    </row>
-    <row r="471" spans="1:65">
+      <c r="BN470" s="3"/>
+    </row>
+    <row r="471" spans="1:66">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -32107,8 +32753,9 @@
       <c r="BK471" s="3"/>
       <c r="BL471" s="3"/>
       <c r="BM471" s="3"/>
-    </row>
-    <row r="472" spans="1:65">
+      <c r="BN471" s="3"/>
+    </row>
+    <row r="472" spans="1:66">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -32174,8 +32821,9 @@
       <c r="BK472" s="3"/>
       <c r="BL472" s="3"/>
       <c r="BM472" s="3"/>
-    </row>
-    <row r="473" spans="1:65">
+      <c r="BN472" s="3"/>
+    </row>
+    <row r="473" spans="1:66">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -32241,8 +32889,9 @@
       <c r="BK473" s="3"/>
       <c r="BL473" s="3"/>
       <c r="BM473" s="3"/>
-    </row>
-    <row r="474" spans="1:65">
+      <c r="BN473" s="3"/>
+    </row>
+    <row r="474" spans="1:66">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -32308,8 +32957,9 @@
       <c r="BK474" s="3"/>
       <c r="BL474" s="3"/>
       <c r="BM474" s="3"/>
-    </row>
-    <row r="475" spans="1:65">
+      <c r="BN474" s="3"/>
+    </row>
+    <row r="475" spans="1:66">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -32375,8 +33025,9 @@
       <c r="BK475" s="3"/>
       <c r="BL475" s="3"/>
       <c r="BM475" s="3"/>
-    </row>
-    <row r="476" spans="1:65">
+      <c r="BN475" s="3"/>
+    </row>
+    <row r="476" spans="1:66">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -32442,8 +33093,9 @@
       <c r="BK476" s="3"/>
       <c r="BL476" s="3"/>
       <c r="BM476" s="3"/>
-    </row>
-    <row r="477" spans="1:65">
+      <c r="BN476" s="3"/>
+    </row>
+    <row r="477" spans="1:66">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -32509,8 +33161,9 @@
       <c r="BK477" s="3"/>
       <c r="BL477" s="3"/>
       <c r="BM477" s="3"/>
-    </row>
-    <row r="478" spans="1:65">
+      <c r="BN477" s="3"/>
+    </row>
+    <row r="478" spans="1:66">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -32576,8 +33229,9 @@
       <c r="BK478" s="3"/>
       <c r="BL478" s="3"/>
       <c r="BM478" s="3"/>
-    </row>
-    <row r="479" spans="1:65">
+      <c r="BN478" s="3"/>
+    </row>
+    <row r="479" spans="1:66">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -32643,8 +33297,9 @@
       <c r="BK479" s="3"/>
       <c r="BL479" s="3"/>
       <c r="BM479" s="3"/>
-    </row>
-    <row r="480" spans="1:65">
+      <c r="BN479" s="3"/>
+    </row>
+    <row r="480" spans="1:66">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -32710,8 +33365,9 @@
       <c r="BK480" s="3"/>
       <c r="BL480" s="3"/>
       <c r="BM480" s="3"/>
-    </row>
-    <row r="481" spans="1:65">
+      <c r="BN480" s="3"/>
+    </row>
+    <row r="481" spans="1:66">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -32777,8 +33433,9 @@
       <c r="BK481" s="3"/>
       <c r="BL481" s="3"/>
       <c r="BM481" s="3"/>
-    </row>
-    <row r="482" spans="1:65">
+      <c r="BN481" s="3"/>
+    </row>
+    <row r="482" spans="1:66">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -32844,8 +33501,9 @@
       <c r="BK482" s="3"/>
       <c r="BL482" s="3"/>
       <c r="BM482" s="3"/>
-    </row>
-    <row r="483" spans="1:65">
+      <c r="BN482" s="3"/>
+    </row>
+    <row r="483" spans="1:66">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -32911,8 +33569,9 @@
       <c r="BK483" s="3"/>
       <c r="BL483" s="3"/>
       <c r="BM483" s="3"/>
-    </row>
-    <row r="484" spans="1:65">
+      <c r="BN483" s="3"/>
+    </row>
+    <row r="484" spans="1:66">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -32978,8 +33637,9 @@
       <c r="BK484" s="3"/>
       <c r="BL484" s="3"/>
       <c r="BM484" s="3"/>
-    </row>
-    <row r="485" spans="1:65">
+      <c r="BN484" s="3"/>
+    </row>
+    <row r="485" spans="1:66">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -33045,8 +33705,9 @@
       <c r="BK485" s="3"/>
       <c r="BL485" s="3"/>
       <c r="BM485" s="3"/>
-    </row>
-    <row r="486" spans="1:65">
+      <c r="BN485" s="3"/>
+    </row>
+    <row r="486" spans="1:66">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -33112,8 +33773,9 @@
       <c r="BK486" s="3"/>
       <c r="BL486" s="3"/>
       <c r="BM486" s="3"/>
-    </row>
-    <row r="487" spans="1:65">
+      <c r="BN486" s="3"/>
+    </row>
+    <row r="487" spans="1:66">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -33179,8 +33841,9 @@
       <c r="BK487" s="3"/>
       <c r="BL487" s="3"/>
       <c r="BM487" s="3"/>
-    </row>
-    <row r="488" spans="1:65">
+      <c r="BN487" s="3"/>
+    </row>
+    <row r="488" spans="1:66">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -33246,8 +33909,9 @@
       <c r="BK488" s="3"/>
       <c r="BL488" s="3"/>
       <c r="BM488" s="3"/>
-    </row>
-    <row r="489" spans="1:65">
+      <c r="BN488" s="3"/>
+    </row>
+    <row r="489" spans="1:66">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -33313,8 +33977,9 @@
       <c r="BK489" s="3"/>
       <c r="BL489" s="3"/>
       <c r="BM489" s="3"/>
-    </row>
-    <row r="490" spans="1:65">
+      <c r="BN489" s="3"/>
+    </row>
+    <row r="490" spans="1:66">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -33380,8 +34045,9 @@
       <c r="BK490" s="3"/>
       <c r="BL490" s="3"/>
       <c r="BM490" s="3"/>
-    </row>
-    <row r="491" spans="1:65">
+      <c r="BN490" s="3"/>
+    </row>
+    <row r="491" spans="1:66">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -33447,8 +34113,9 @@
       <c r="BK491" s="3"/>
       <c r="BL491" s="3"/>
       <c r="BM491" s="3"/>
-    </row>
-    <row r="492" spans="1:65">
+      <c r="BN491" s="3"/>
+    </row>
+    <row r="492" spans="1:66">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -33514,8 +34181,9 @@
       <c r="BK492" s="3"/>
       <c r="BL492" s="3"/>
       <c r="BM492" s="3"/>
-    </row>
-    <row r="493" spans="1:65">
+      <c r="BN492" s="3"/>
+    </row>
+    <row r="493" spans="1:66">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -33581,8 +34249,9 @@
       <c r="BK493" s="3"/>
       <c r="BL493" s="3"/>
       <c r="BM493" s="3"/>
-    </row>
-    <row r="494" spans="1:65">
+      <c r="BN493" s="3"/>
+    </row>
+    <row r="494" spans="1:66">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -33648,8 +34317,9 @@
       <c r="BK494" s="3"/>
       <c r="BL494" s="3"/>
       <c r="BM494" s="3"/>
-    </row>
-    <row r="495" spans="1:65">
+      <c r="BN494" s="3"/>
+    </row>
+    <row r="495" spans="1:66">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -33715,8 +34385,9 @@
       <c r="BK495" s="3"/>
       <c r="BL495" s="3"/>
       <c r="BM495" s="3"/>
-    </row>
-    <row r="496" spans="1:65">
+      <c r="BN495" s="3"/>
+    </row>
+    <row r="496" spans="1:66">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -33782,8 +34453,9 @@
       <c r="BK496" s="3"/>
       <c r="BL496" s="3"/>
       <c r="BM496" s="3"/>
-    </row>
-    <row r="497" spans="1:65">
+      <c r="BN496" s="3"/>
+    </row>
+    <row r="497" spans="1:66">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -33849,8 +34521,9 @@
       <c r="BK497" s="3"/>
       <c r="BL497" s="3"/>
       <c r="BM497" s="3"/>
-    </row>
-    <row r="498" spans="1:65">
+      <c r="BN497" s="3"/>
+    </row>
+    <row r="498" spans="1:66">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -33916,8 +34589,9 @@
       <c r="BK498" s="3"/>
       <c r="BL498" s="3"/>
       <c r="BM498" s="3"/>
-    </row>
-    <row r="499" spans="1:65">
+      <c r="BN498" s="3"/>
+    </row>
+    <row r="499" spans="1:66">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -33983,8 +34657,9 @@
       <c r="BK499" s="3"/>
       <c r="BL499" s="3"/>
       <c r="BM499" s="3"/>
-    </row>
-    <row r="500" spans="1:65">
+      <c r="BN499" s="3"/>
+    </row>
+    <row r="500" spans="1:66">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -34050,8 +34725,9 @@
       <c r="BK500" s="3"/>
       <c r="BL500" s="3"/>
       <c r="BM500" s="3"/>
-    </row>
-    <row r="501" spans="1:65">
+      <c r="BN500" s="3"/>
+    </row>
+    <row r="501" spans="1:66">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -34117,8 +34793,9 @@
       <c r="BK501" s="3"/>
       <c r="BL501" s="3"/>
       <c r="BM501" s="3"/>
-    </row>
-    <row r="502" spans="1:65">
+      <c r="BN501" s="3"/>
+    </row>
+    <row r="502" spans="1:66">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -34184,8 +34861,9 @@
       <c r="BK502" s="3"/>
       <c r="BL502" s="3"/>
       <c r="BM502" s="3"/>
-    </row>
-    <row r="503" spans="1:65">
+      <c r="BN502" s="3"/>
+    </row>
+    <row r="503" spans="1:66">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -34251,8 +34929,9 @@
       <c r="BK503" s="3"/>
       <c r="BL503" s="3"/>
       <c r="BM503" s="3"/>
-    </row>
-    <row r="504" spans="1:65">
+      <c r="BN503" s="3"/>
+    </row>
+    <row r="504" spans="1:66">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -34318,8 +34997,9 @@
       <c r="BK504" s="3"/>
       <c r="BL504" s="3"/>
       <c r="BM504" s="3"/>
-    </row>
-    <row r="505" spans="1:65">
+      <c r="BN504" s="3"/>
+    </row>
+    <row r="505" spans="1:66">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -34385,8 +35065,9 @@
       <c r="BK505" s="3"/>
       <c r="BL505" s="3"/>
       <c r="BM505" s="3"/>
-    </row>
-    <row r="506" spans="1:65">
+      <c r="BN505" s="3"/>
+    </row>
+    <row r="506" spans="1:66">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -34452,8 +35133,9 @@
       <c r="BK506" s="3"/>
       <c r="BL506" s="3"/>
       <c r="BM506" s="3"/>
-    </row>
-    <row r="507" spans="1:65">
+      <c r="BN506" s="3"/>
+    </row>
+    <row r="507" spans="1:66">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -34519,8 +35201,9 @@
       <c r="BK507" s="3"/>
       <c r="BL507" s="3"/>
       <c r="BM507" s="3"/>
-    </row>
-    <row r="508" spans="1:65">
+      <c r="BN507" s="3"/>
+    </row>
+    <row r="508" spans="1:66">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -34586,8 +35269,9 @@
       <c r="BK508" s="3"/>
       <c r="BL508" s="3"/>
       <c r="BM508" s="3"/>
-    </row>
-    <row r="509" spans="1:65">
+      <c r="BN508" s="3"/>
+    </row>
+    <row r="509" spans="1:66">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -34653,8 +35337,9 @@
       <c r="BK509" s="3"/>
       <c r="BL509" s="3"/>
       <c r="BM509" s="3"/>
-    </row>
-    <row r="510" spans="1:65">
+      <c r="BN509" s="3"/>
+    </row>
+    <row r="510" spans="1:66">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -34720,8 +35405,9 @@
       <c r="BK510" s="3"/>
       <c r="BL510" s="3"/>
       <c r="BM510" s="3"/>
-    </row>
-    <row r="511" spans="1:65">
+      <c r="BN510" s="3"/>
+    </row>
+    <row r="511" spans="1:66">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -34787,8 +35473,9 @@
       <c r="BK511" s="3"/>
       <c r="BL511" s="3"/>
       <c r="BM511" s="3"/>
-    </row>
-    <row r="512" spans="1:65">
+      <c r="BN511" s="3"/>
+    </row>
+    <row r="512" spans="1:66">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -34854,8 +35541,9 @@
       <c r="BK512" s="3"/>
       <c r="BL512" s="3"/>
       <c r="BM512" s="3"/>
-    </row>
-    <row r="513" spans="1:65">
+      <c r="BN512" s="3"/>
+    </row>
+    <row r="513" spans="1:66">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -34921,8 +35609,9 @@
       <c r="BK513" s="3"/>
       <c r="BL513" s="3"/>
       <c r="BM513" s="3"/>
-    </row>
-    <row r="514" spans="1:65">
+      <c r="BN513" s="3"/>
+    </row>
+    <row r="514" spans="1:66">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -34988,8 +35677,9 @@
       <c r="BK514" s="3"/>
       <c r="BL514" s="3"/>
       <c r="BM514" s="3"/>
-    </row>
-    <row r="515" spans="1:65">
+      <c r="BN514" s="3"/>
+    </row>
+    <row r="515" spans="1:66">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -35055,8 +35745,9 @@
       <c r="BK515" s="3"/>
       <c r="BL515" s="3"/>
       <c r="BM515" s="3"/>
-    </row>
-    <row r="516" spans="1:65">
+      <c r="BN515" s="3"/>
+    </row>
+    <row r="516" spans="1:66">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -35122,8 +35813,9 @@
       <c r="BK516" s="3"/>
       <c r="BL516" s="3"/>
       <c r="BM516" s="3"/>
-    </row>
-    <row r="517" spans="1:65">
+      <c r="BN516" s="3"/>
+    </row>
+    <row r="517" spans="1:66">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -35189,8 +35881,9 @@
       <c r="BK517" s="3"/>
       <c r="BL517" s="3"/>
       <c r="BM517" s="3"/>
-    </row>
-    <row r="518" spans="1:65">
+      <c r="BN517" s="3"/>
+    </row>
+    <row r="518" spans="1:66">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -35256,8 +35949,9 @@
       <c r="BK518" s="3"/>
       <c r="BL518" s="3"/>
       <c r="BM518" s="3"/>
-    </row>
-    <row r="519" spans="1:65">
+      <c r="BN518" s="3"/>
+    </row>
+    <row r="519" spans="1:66">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -35323,8 +36017,9 @@
       <c r="BK519" s="3"/>
       <c r="BL519" s="3"/>
       <c r="BM519" s="3"/>
-    </row>
-    <row r="520" spans="1:65">
+      <c r="BN519" s="3"/>
+    </row>
+    <row r="520" spans="1:66">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -35390,8 +36085,9 @@
       <c r="BK520" s="3"/>
       <c r="BL520" s="3"/>
       <c r="BM520" s="3"/>
-    </row>
-    <row r="521" spans="1:65">
+      <c r="BN520" s="3"/>
+    </row>
+    <row r="521" spans="1:66">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -35457,8 +36153,9 @@
       <c r="BK521" s="3"/>
       <c r="BL521" s="3"/>
       <c r="BM521" s="3"/>
-    </row>
-    <row r="522" spans="1:65">
+      <c r="BN521" s="3"/>
+    </row>
+    <row r="522" spans="1:66">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -35524,8 +36221,9 @@
       <c r="BK522" s="3"/>
       <c r="BL522" s="3"/>
       <c r="BM522" s="3"/>
-    </row>
-    <row r="523" spans="1:65">
+      <c r="BN522" s="3"/>
+    </row>
+    <row r="523" spans="1:66">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -35591,8 +36289,9 @@
       <c r="BK523" s="3"/>
       <c r="BL523" s="3"/>
       <c r="BM523" s="3"/>
-    </row>
-    <row r="524" spans="1:65">
+      <c r="BN523" s="3"/>
+    </row>
+    <row r="524" spans="1:66">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -35658,8 +36357,9 @@
       <c r="BK524" s="3"/>
       <c r="BL524" s="3"/>
       <c r="BM524" s="3"/>
-    </row>
-    <row r="525" spans="1:65">
+      <c r="BN524" s="3"/>
+    </row>
+    <row r="525" spans="1:66">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -35725,8 +36425,9 @@
       <c r="BK525" s="3"/>
       <c r="BL525" s="3"/>
       <c r="BM525" s="3"/>
-    </row>
-    <row r="526" spans="1:65">
+      <c r="BN525" s="3"/>
+    </row>
+    <row r="526" spans="1:66">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -35792,8 +36493,9 @@
       <c r="BK526" s="3"/>
       <c r="BL526" s="3"/>
       <c r="BM526" s="3"/>
-    </row>
-    <row r="527" spans="1:65">
+      <c r="BN526" s="3"/>
+    </row>
+    <row r="527" spans="1:66">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -35859,8 +36561,9 @@
       <c r="BK527" s="3"/>
       <c r="BL527" s="3"/>
       <c r="BM527" s="3"/>
-    </row>
-    <row r="528" spans="1:65">
+      <c r="BN527" s="3"/>
+    </row>
+    <row r="528" spans="1:66">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -35926,8 +36629,9 @@
       <c r="BK528" s="3"/>
       <c r="BL528" s="3"/>
       <c r="BM528" s="3"/>
-    </row>
-    <row r="529" spans="1:65">
+      <c r="BN528" s="3"/>
+    </row>
+    <row r="529" spans="1:66">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -35993,8 +36697,9 @@
       <c r="BK529" s="3"/>
       <c r="BL529" s="3"/>
       <c r="BM529" s="3"/>
-    </row>
-    <row r="530" spans="1:65">
+      <c r="BN529" s="3"/>
+    </row>
+    <row r="530" spans="1:66">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -36060,8 +36765,9 @@
       <c r="BK530" s="3"/>
       <c r="BL530" s="3"/>
       <c r="BM530" s="3"/>
-    </row>
-    <row r="531" spans="1:65">
+      <c r="BN530" s="3"/>
+    </row>
+    <row r="531" spans="1:66">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -36127,8 +36833,9 @@
       <c r="BK531" s="3"/>
       <c r="BL531" s="3"/>
       <c r="BM531" s="3"/>
-    </row>
-    <row r="532" spans="1:65">
+      <c r="BN531" s="3"/>
+    </row>
+    <row r="532" spans="1:66">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -36194,8 +36901,9 @@
       <c r="BK532" s="3"/>
       <c r="BL532" s="3"/>
       <c r="BM532" s="3"/>
-    </row>
-    <row r="533" spans="1:65">
+      <c r="BN532" s="3"/>
+    </row>
+    <row r="533" spans="1:66">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -36261,8 +36969,9 @@
       <c r="BK533" s="3"/>
       <c r="BL533" s="3"/>
       <c r="BM533" s="3"/>
-    </row>
-    <row r="534" spans="1:65">
+      <c r="BN533" s="3"/>
+    </row>
+    <row r="534" spans="1:66">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -36328,8 +37037,9 @@
       <c r="BK534" s="3"/>
       <c r="BL534" s="3"/>
       <c r="BM534" s="3"/>
-    </row>
-    <row r="535" spans="1:65">
+      <c r="BN534" s="3"/>
+    </row>
+    <row r="535" spans="1:66">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -36395,8 +37105,9 @@
       <c r="BK535" s="3"/>
       <c r="BL535" s="3"/>
       <c r="BM535" s="3"/>
-    </row>
-    <row r="536" spans="1:65">
+      <c r="BN535" s="3"/>
+    </row>
+    <row r="536" spans="1:66">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -36462,8 +37173,9 @@
       <c r="BK536" s="3"/>
       <c r="BL536" s="3"/>
       <c r="BM536" s="3"/>
-    </row>
-    <row r="537" spans="1:65">
+      <c r="BN536" s="3"/>
+    </row>
+    <row r="537" spans="1:66">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -36529,8 +37241,9 @@
       <c r="BK537" s="3"/>
       <c r="BL537" s="3"/>
       <c r="BM537" s="3"/>
-    </row>
-    <row r="538" spans="1:65">
+      <c r="BN537" s="3"/>
+    </row>
+    <row r="538" spans="1:66">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -36596,8 +37309,9 @@
       <c r="BK538" s="3"/>
       <c r="BL538" s="3"/>
       <c r="BM538" s="3"/>
-    </row>
-    <row r="539" spans="1:65">
+      <c r="BN538" s="3"/>
+    </row>
+    <row r="539" spans="1:66">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -36663,8 +37377,9 @@
       <c r="BK539" s="3"/>
       <c r="BL539" s="3"/>
       <c r="BM539" s="3"/>
-    </row>
-    <row r="540" spans="1:65">
+      <c r="BN539" s="3"/>
+    </row>
+    <row r="540" spans="1:66">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -36730,8 +37445,9 @@
       <c r="BK540" s="3"/>
       <c r="BL540" s="3"/>
       <c r="BM540" s="3"/>
-    </row>
-    <row r="541" spans="1:65">
+      <c r="BN540" s="3"/>
+    </row>
+    <row r="541" spans="1:66">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -36797,8 +37513,9 @@
       <c r="BK541" s="3"/>
       <c r="BL541" s="3"/>
       <c r="BM541" s="3"/>
-    </row>
-    <row r="542" spans="1:65">
+      <c r="BN541" s="3"/>
+    </row>
+    <row r="542" spans="1:66">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -36864,8 +37581,9 @@
       <c r="BK542" s="3"/>
       <c r="BL542" s="3"/>
       <c r="BM542" s="3"/>
-    </row>
-    <row r="543" spans="1:65">
+      <c r="BN542" s="3"/>
+    </row>
+    <row r="543" spans="1:66">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -36931,8 +37649,9 @@
       <c r="BK543" s="3"/>
       <c r="BL543" s="3"/>
       <c r="BM543" s="3"/>
-    </row>
-    <row r="544" spans="1:65">
+      <c r="BN543" s="3"/>
+    </row>
+    <row r="544" spans="1:66">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -36998,8 +37717,9 @@
       <c r="BK544" s="3"/>
       <c r="BL544" s="3"/>
       <c r="BM544" s="3"/>
-    </row>
-    <row r="545" spans="1:65">
+      <c r="BN544" s="3"/>
+    </row>
+    <row r="545" spans="1:66">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -37065,8 +37785,9 @@
       <c r="BK545" s="3"/>
       <c r="BL545" s="3"/>
       <c r="BM545" s="3"/>
-    </row>
-    <row r="546" spans="1:65">
+      <c r="BN545" s="3"/>
+    </row>
+    <row r="546" spans="1:66">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -37132,8 +37853,9 @@
       <c r="BK546" s="3"/>
       <c r="BL546" s="3"/>
       <c r="BM546" s="3"/>
-    </row>
-    <row r="547" spans="1:65">
+      <c r="BN546" s="3"/>
+    </row>
+    <row r="547" spans="1:66">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -37199,8 +37921,9 @@
       <c r="BK547" s="3"/>
       <c r="BL547" s="3"/>
       <c r="BM547" s="3"/>
-    </row>
-    <row r="548" spans="1:65">
+      <c r="BN547" s="3"/>
+    </row>
+    <row r="548" spans="1:66">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -37266,8 +37989,9 @@
       <c r="BK548" s="3"/>
       <c r="BL548" s="3"/>
       <c r="BM548" s="3"/>
-    </row>
-    <row r="549" spans="1:65">
+      <c r="BN548" s="3"/>
+    </row>
+    <row r="549" spans="1:66">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -37333,8 +38057,9 @@
       <c r="BK549" s="3"/>
       <c r="BL549" s="3"/>
       <c r="BM549" s="3"/>
-    </row>
-    <row r="550" spans="1:65">
+      <c r="BN549" s="3"/>
+    </row>
+    <row r="550" spans="1:66">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -37400,8 +38125,9 @@
       <c r="BK550" s="3"/>
       <c r="BL550" s="3"/>
       <c r="BM550" s="3"/>
-    </row>
-    <row r="551" spans="1:65">
+      <c r="BN550" s="3"/>
+    </row>
+    <row r="551" spans="1:66">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -37467,8 +38193,9 @@
       <c r="BK551" s="3"/>
       <c r="BL551" s="3"/>
       <c r="BM551" s="3"/>
-    </row>
-    <row r="552" spans="1:65">
+      <c r="BN551" s="3"/>
+    </row>
+    <row r="552" spans="1:66">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -37534,8 +38261,9 @@
       <c r="BK552" s="3"/>
       <c r="BL552" s="3"/>
       <c r="BM552" s="3"/>
-    </row>
-    <row r="553" spans="1:65">
+      <c r="BN552" s="3"/>
+    </row>
+    <row r="553" spans="1:66">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -37601,8 +38329,9 @@
       <c r="BK553" s="3"/>
       <c r="BL553" s="3"/>
       <c r="BM553" s="3"/>
-    </row>
-    <row r="554" spans="1:65">
+      <c r="BN553" s="3"/>
+    </row>
+    <row r="554" spans="1:66">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -37668,8 +38397,9 @@
       <c r="BK554" s="3"/>
       <c r="BL554" s="3"/>
       <c r="BM554" s="3"/>
-    </row>
-    <row r="555" spans="1:65">
+      <c r="BN554" s="3"/>
+    </row>
+    <row r="555" spans="1:66">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -37735,8 +38465,9 @@
       <c r="BK555" s="3"/>
       <c r="BL555" s="3"/>
       <c r="BM555" s="3"/>
-    </row>
-    <row r="556" spans="1:65">
+      <c r="BN555" s="3"/>
+    </row>
+    <row r="556" spans="1:66">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -37802,8 +38533,9 @@
       <c r="BK556" s="3"/>
       <c r="BL556" s="3"/>
       <c r="BM556" s="3"/>
-    </row>
-    <row r="557" spans="1:65">
+      <c r="BN556" s="3"/>
+    </row>
+    <row r="557" spans="1:66">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -37869,8 +38601,9 @@
       <c r="BK557" s="3"/>
       <c r="BL557" s="3"/>
       <c r="BM557" s="3"/>
-    </row>
-    <row r="558" spans="1:65">
+      <c r="BN557" s="3"/>
+    </row>
+    <row r="558" spans="1:66">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -37936,8 +38669,9 @@
       <c r="BK558" s="3"/>
       <c r="BL558" s="3"/>
       <c r="BM558" s="3"/>
-    </row>
-    <row r="559" spans="1:65">
+      <c r="BN558" s="3"/>
+    </row>
+    <row r="559" spans="1:66">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -38003,8 +38737,9 @@
       <c r="BK559" s="3"/>
       <c r="BL559" s="3"/>
       <c r="BM559" s="3"/>
-    </row>
-    <row r="560" spans="1:65">
+      <c r="BN559" s="3"/>
+    </row>
+    <row r="560" spans="1:66">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -38070,8 +38805,9 @@
       <c r="BK560" s="3"/>
       <c r="BL560" s="3"/>
       <c r="BM560" s="3"/>
-    </row>
-    <row r="561" spans="1:65">
+      <c r="BN560" s="3"/>
+    </row>
+    <row r="561" spans="1:66">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -38137,8 +38873,9 @@
       <c r="BK561" s="3"/>
       <c r="BL561" s="3"/>
       <c r="BM561" s="3"/>
-    </row>
-    <row r="562" spans="1:65">
+      <c r="BN561" s="3"/>
+    </row>
+    <row r="562" spans="1:66">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -38204,8 +38941,9 @@
       <c r="BK562" s="3"/>
       <c r="BL562" s="3"/>
       <c r="BM562" s="3"/>
-    </row>
-    <row r="563" spans="1:65">
+      <c r="BN562" s="3"/>
+    </row>
+    <row r="563" spans="1:66">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -38271,8 +39009,9 @@
       <c r="BK563" s="3"/>
       <c r="BL563" s="3"/>
       <c r="BM563" s="3"/>
-    </row>
-    <row r="564" spans="1:65">
+      <c r="BN563" s="3"/>
+    </row>
+    <row r="564" spans="1:66">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -38338,8 +39077,9 @@
       <c r="BK564" s="3"/>
       <c r="BL564" s="3"/>
       <c r="BM564" s="3"/>
-    </row>
-    <row r="565" spans="1:65">
+      <c r="BN564" s="3"/>
+    </row>
+    <row r="565" spans="1:66">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -38405,8 +39145,9 @@
       <c r="BK565" s="3"/>
       <c r="BL565" s="3"/>
       <c r="BM565" s="3"/>
-    </row>
-    <row r="566" spans="1:65">
+      <c r="BN565" s="3"/>
+    </row>
+    <row r="566" spans="1:66">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -38472,8 +39213,9 @@
       <c r="BK566" s="3"/>
       <c r="BL566" s="3"/>
       <c r="BM566" s="3"/>
-    </row>
-    <row r="567" spans="1:65">
+      <c r="BN566" s="3"/>
+    </row>
+    <row r="567" spans="1:66">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -38539,8 +39281,9 @@
       <c r="BK567" s="3"/>
       <c r="BL567" s="3"/>
       <c r="BM567" s="3"/>
-    </row>
-    <row r="568" spans="1:65">
+      <c r="BN567" s="3"/>
+    </row>
+    <row r="568" spans="1:66">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -38606,8 +39349,9 @@
       <c r="BK568" s="3"/>
       <c r="BL568" s="3"/>
       <c r="BM568" s="3"/>
-    </row>
-    <row r="569" spans="1:65">
+      <c r="BN568" s="3"/>
+    </row>
+    <row r="569" spans="1:66">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -38673,8 +39417,9 @@
       <c r="BK569" s="3"/>
       <c r="BL569" s="3"/>
       <c r="BM569" s="3"/>
-    </row>
-    <row r="570" spans="1:65">
+      <c r="BN569" s="3"/>
+    </row>
+    <row r="570" spans="1:66">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -38740,8 +39485,9 @@
       <c r="BK570" s="3"/>
       <c r="BL570" s="3"/>
       <c r="BM570" s="3"/>
-    </row>
-    <row r="571" spans="1:65">
+      <c r="BN570" s="3"/>
+    </row>
+    <row r="571" spans="1:66">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -38807,8 +39553,9 @@
       <c r="BK571" s="3"/>
       <c r="BL571" s="3"/>
       <c r="BM571" s="3"/>
-    </row>
-    <row r="572" spans="1:65">
+      <c r="BN571" s="3"/>
+    </row>
+    <row r="572" spans="1:66">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -38874,8 +39621,9 @@
       <c r="BK572" s="3"/>
       <c r="BL572" s="3"/>
       <c r="BM572" s="3"/>
-    </row>
-    <row r="573" spans="1:65">
+      <c r="BN572" s="3"/>
+    </row>
+    <row r="573" spans="1:66">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -38941,8 +39689,9 @@
       <c r="BK573" s="3"/>
       <c r="BL573" s="3"/>
       <c r="BM573" s="3"/>
-    </row>
-    <row r="574" spans="1:65">
+      <c r="BN573" s="3"/>
+    </row>
+    <row r="574" spans="1:66">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -39008,8 +39757,9 @@
       <c r="BK574" s="3"/>
       <c r="BL574" s="3"/>
       <c r="BM574" s="3"/>
-    </row>
-    <row r="575" spans="1:65">
+      <c r="BN574" s="3"/>
+    </row>
+    <row r="575" spans="1:66">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -39075,8 +39825,9 @@
       <c r="BK575" s="3"/>
       <c r="BL575" s="3"/>
       <c r="BM575" s="3"/>
-    </row>
-    <row r="576" spans="1:65">
+      <c r="BN575" s="3"/>
+    </row>
+    <row r="576" spans="1:66">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -39142,8 +39893,9 @@
       <c r="BK576" s="3"/>
       <c r="BL576" s="3"/>
       <c r="BM576" s="3"/>
-    </row>
-    <row r="577" spans="1:65">
+      <c r="BN576" s="3"/>
+    </row>
+    <row r="577" spans="1:66">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -39209,8 +39961,9 @@
       <c r="BK577" s="3"/>
       <c r="BL577" s="3"/>
       <c r="BM577" s="3"/>
-    </row>
-    <row r="578" spans="1:65">
+      <c r="BN577" s="3"/>
+    </row>
+    <row r="578" spans="1:66">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -39276,8 +40029,9 @@
       <c r="BK578" s="3"/>
       <c r="BL578" s="3"/>
       <c r="BM578" s="3"/>
-    </row>
-    <row r="579" spans="1:65">
+      <c r="BN578" s="3"/>
+    </row>
+    <row r="579" spans="1:66">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -39343,8 +40097,9 @@
       <c r="BK579" s="3"/>
       <c r="BL579" s="3"/>
       <c r="BM579" s="3"/>
-    </row>
-    <row r="580" spans="1:65">
+      <c r="BN579" s="3"/>
+    </row>
+    <row r="580" spans="1:66">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -39410,8 +40165,9 @@
       <c r="BK580" s="3"/>
       <c r="BL580" s="3"/>
       <c r="BM580" s="3"/>
-    </row>
-    <row r="581" spans="1:65">
+      <c r="BN580" s="3"/>
+    </row>
+    <row r="581" spans="1:66">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -39477,8 +40233,9 @@
       <c r="BK581" s="3"/>
       <c r="BL581" s="3"/>
       <c r="BM581" s="3"/>
-    </row>
-    <row r="582" spans="1:65">
+      <c r="BN581" s="3"/>
+    </row>
+    <row r="582" spans="1:66">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -39544,8 +40301,9 @@
       <c r="BK582" s="3"/>
       <c r="BL582" s="3"/>
       <c r="BM582" s="3"/>
-    </row>
-    <row r="583" spans="1:65">
+      <c r="BN582" s="3"/>
+    </row>
+    <row r="583" spans="1:66">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -39611,8 +40369,9 @@
       <c r="BK583" s="3"/>
       <c r="BL583" s="3"/>
       <c r="BM583" s="3"/>
-    </row>
-    <row r="584" spans="1:65">
+      <c r="BN583" s="3"/>
+    </row>
+    <row r="584" spans="1:66">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -39678,8 +40437,9 @@
       <c r="BK584" s="3"/>
       <c r="BL584" s="3"/>
       <c r="BM584" s="3"/>
-    </row>
-    <row r="585" spans="1:65">
+      <c r="BN584" s="3"/>
+    </row>
+    <row r="585" spans="1:66">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -39745,8 +40505,9 @@
       <c r="BK585" s="3"/>
       <c r="BL585" s="3"/>
       <c r="BM585" s="3"/>
-    </row>
-    <row r="586" spans="1:65">
+      <c r="BN585" s="3"/>
+    </row>
+    <row r="586" spans="1:66">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -39812,8 +40573,9 @@
       <c r="BK586" s="3"/>
       <c r="BL586" s="3"/>
       <c r="BM586" s="3"/>
-    </row>
-    <row r="587" spans="1:65">
+      <c r="BN586" s="3"/>
+    </row>
+    <row r="587" spans="1:66">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -39879,8 +40641,9 @@
       <c r="BK587" s="3"/>
       <c r="BL587" s="3"/>
       <c r="BM587" s="3"/>
-    </row>
-    <row r="588" spans="1:65">
+      <c r="BN587" s="3"/>
+    </row>
+    <row r="588" spans="1:66">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -39946,8 +40709,9 @@
       <c r="BK588" s="3"/>
       <c r="BL588" s="3"/>
       <c r="BM588" s="3"/>
-    </row>
-    <row r="589" spans="1:65">
+      <c r="BN588" s="3"/>
+    </row>
+    <row r="589" spans="1:66">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -40013,8 +40777,9 @@
       <c r="BK589" s="3"/>
       <c r="BL589" s="3"/>
       <c r="BM589" s="3"/>
-    </row>
-    <row r="590" spans="1:65">
+      <c r="BN589" s="3"/>
+    </row>
+    <row r="590" spans="1:66">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -40080,8 +40845,9 @@
       <c r="BK590" s="3"/>
       <c r="BL590" s="3"/>
       <c r="BM590" s="3"/>
-    </row>
-    <row r="591" spans="1:65">
+      <c r="BN590" s="3"/>
+    </row>
+    <row r="591" spans="1:66">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -40147,8 +40913,9 @@
       <c r="BK591" s="3"/>
       <c r="BL591" s="3"/>
       <c r="BM591" s="3"/>
-    </row>
-    <row r="592" spans="1:65">
+      <c r="BN591" s="3"/>
+    </row>
+    <row r="592" spans="1:66">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -40214,8 +40981,9 @@
       <c r="BK592" s="3"/>
       <c r="BL592" s="3"/>
       <c r="BM592" s="3"/>
-    </row>
-    <row r="593" spans="1:65">
+      <c r="BN592" s="3"/>
+    </row>
+    <row r="593" spans="1:66">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -40281,8 +41049,9 @@
       <c r="BK593" s="3"/>
       <c r="BL593" s="3"/>
       <c r="BM593" s="3"/>
-    </row>
-    <row r="594" spans="1:65">
+      <c r="BN593" s="3"/>
+    </row>
+    <row r="594" spans="1:66">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -40348,8 +41117,9 @@
       <c r="BK594" s="3"/>
       <c r="BL594" s="3"/>
       <c r="BM594" s="3"/>
-    </row>
-    <row r="595" spans="1:65">
+      <c r="BN594" s="3"/>
+    </row>
+    <row r="595" spans="1:66">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -40415,8 +41185,9 @@
       <c r="BK595" s="3"/>
       <c r="BL595" s="3"/>
       <c r="BM595" s="3"/>
-    </row>
-    <row r="596" spans="1:65">
+      <c r="BN595" s="3"/>
+    </row>
+    <row r="596" spans="1:66">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -40482,8 +41253,9 @@
       <c r="BK596" s="3"/>
       <c r="BL596" s="3"/>
       <c r="BM596" s="3"/>
-    </row>
-    <row r="597" spans="1:65">
+      <c r="BN596" s="3"/>
+    </row>
+    <row r="597" spans="1:66">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -40549,8 +41321,9 @@
       <c r="BK597" s="3"/>
       <c r="BL597" s="3"/>
       <c r="BM597" s="3"/>
-    </row>
-    <row r="598" spans="1:65">
+      <c r="BN597" s="3"/>
+    </row>
+    <row r="598" spans="1:66">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -40616,8 +41389,9 @@
       <c r="BK598" s="3"/>
       <c r="BL598" s="3"/>
       <c r="BM598" s="3"/>
-    </row>
-    <row r="599" spans="1:65">
+      <c r="BN598" s="3"/>
+    </row>
+    <row r="599" spans="1:66">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -40683,8 +41457,9 @@
       <c r="BK599" s="3"/>
       <c r="BL599" s="3"/>
       <c r="BM599" s="3"/>
-    </row>
-    <row r="600" spans="1:65">
+      <c r="BN599" s="3"/>
+    </row>
+    <row r="600" spans="1:66">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -40750,8 +41525,9 @@
       <c r="BK600" s="3"/>
       <c r="BL600" s="3"/>
       <c r="BM600" s="3"/>
-    </row>
-    <row r="601" spans="1:65">
+      <c r="BN600" s="3"/>
+    </row>
+    <row r="601" spans="1:66">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -40817,8 +41593,9 @@
       <c r="BK601" s="3"/>
       <c r="BL601" s="3"/>
       <c r="BM601" s="3"/>
-    </row>
-    <row r="602" spans="1:65">
+      <c r="BN601" s="3"/>
+    </row>
+    <row r="602" spans="1:66">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -40884,8 +41661,9 @@
       <c r="BK602" s="3"/>
       <c r="BL602" s="3"/>
       <c r="BM602" s="3"/>
-    </row>
-    <row r="603" spans="1:65">
+      <c r="BN602" s="3"/>
+    </row>
+    <row r="603" spans="1:66">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -40951,8 +41729,9 @@
       <c r="BK603" s="3"/>
       <c r="BL603" s="3"/>
       <c r="BM603" s="3"/>
-    </row>
-    <row r="604" spans="1:65">
+      <c r="BN603" s="3"/>
+    </row>
+    <row r="604" spans="1:66">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -41018,8 +41797,9 @@
       <c r="BK604" s="3"/>
       <c r="BL604" s="3"/>
       <c r="BM604" s="3"/>
-    </row>
-    <row r="605" spans="1:65">
+      <c r="BN604" s="3"/>
+    </row>
+    <row r="605" spans="1:66">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -41085,8 +41865,9 @@
       <c r="BK605" s="3"/>
       <c r="BL605" s="3"/>
       <c r="BM605" s="3"/>
-    </row>
-    <row r="606" spans="1:65">
+      <c r="BN605" s="3"/>
+    </row>
+    <row r="606" spans="1:66">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -41152,8 +41933,9 @@
       <c r="BK606" s="3"/>
       <c r="BL606" s="3"/>
       <c r="BM606" s="3"/>
-    </row>
-    <row r="607" spans="1:65">
+      <c r="BN606" s="3"/>
+    </row>
+    <row r="607" spans="1:66">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -41219,8 +42001,9 @@
       <c r="BK607" s="3"/>
       <c r="BL607" s="3"/>
       <c r="BM607" s="3"/>
-    </row>
-    <row r="608" spans="1:65">
+      <c r="BN607" s="3"/>
+    </row>
+    <row r="608" spans="1:66">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -41286,8 +42069,9 @@
       <c r="BK608" s="3"/>
       <c r="BL608" s="3"/>
       <c r="BM608" s="3"/>
-    </row>
-    <row r="609" spans="1:65">
+      <c r="BN608" s="3"/>
+    </row>
+    <row r="609" spans="1:66">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -41353,8 +42137,9 @@
       <c r="BK609" s="3"/>
       <c r="BL609" s="3"/>
       <c r="BM609" s="3"/>
-    </row>
-    <row r="610" spans="1:65">
+      <c r="BN609" s="3"/>
+    </row>
+    <row r="610" spans="1:66">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -41420,8 +42205,9 @@
       <c r="BK610" s="3"/>
       <c r="BL610" s="3"/>
       <c r="BM610" s="3"/>
-    </row>
-    <row r="611" spans="1:65">
+      <c r="BN610" s="3"/>
+    </row>
+    <row r="611" spans="1:66">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -41487,8 +42273,9 @@
       <c r="BK611" s="3"/>
       <c r="BL611" s="3"/>
       <c r="BM611" s="3"/>
-    </row>
-    <row r="612" spans="1:65">
+      <c r="BN611" s="3"/>
+    </row>
+    <row r="612" spans="1:66">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -41554,8 +42341,9 @@
       <c r="BK612" s="3"/>
       <c r="BL612" s="3"/>
       <c r="BM612" s="3"/>
-    </row>
-    <row r="613" spans="1:65">
+      <c r="BN612" s="3"/>
+    </row>
+    <row r="613" spans="1:66">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -41621,8 +42409,15 @@
       <c r="BK613" s="3"/>
       <c r="BL613" s="3"/>
       <c r="BM613" s="3"/>
+      <c r="BN613" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="T9:T13"/>
+    <mergeCell ref="T14:T16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -696,7 +696,9 @@
       <c r="J3" s="3">
         <v>359998103191005</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>353428110199248</v>
+      </c>
       <c r="L3" s="3">
         <v>357655105058945</v>
       </c>
@@ -1248,7 +1250,9 @@
     <row r="10" spans="1:66">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>358444100836343</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>359152107940526</v>
@@ -1324,7 +1328,9 @@
     <row r="11" spans="1:66">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>358444100822988</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>359152107937688</v>
@@ -2364,7 +2370,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>359152108500725</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2432,7 +2440,9 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>359152108502903</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2500,7 +2510,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>359152108500667</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2568,7 +2580,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>359152108500584</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>

--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>R40</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>bl98</t>
+  </si>
+  <si>
+    <t>b65</t>
+  </si>
+  <si>
+    <t>i95</t>
   </si>
 </sst>
 </file>
@@ -500,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,7 +520,9 @@
     <col min="8" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="25" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="2" customFormat="1">
@@ -572,6 +580,21 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="3">
@@ -630,11 +653,21 @@
       <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="U2" s="3">
+        <v>357653105725084</v>
+      </c>
+      <c r="V2" s="3">
+        <v>352785101788875</v>
+      </c>
+      <c r="W2" s="3">
+        <v>353515111992426</v>
+      </c>
+      <c r="X2" s="3">
+        <v>359777106988140</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>353428112088527</v>
+      </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
@@ -719,10 +752,16 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="3">
+        <v>352785101788842</v>
+      </c>
+      <c r="W3" s="3">
+        <v>353515112133327</v>
+      </c>
       <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3">
+        <v>353428112088147</v>
+      </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -806,9 +845,13 @@
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3">
+        <v>353515111902961</v>
+      </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3">
+        <v>353428112091927</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>

--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>R40</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>i95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>i74</t>
   </si>
 </sst>
 </file>
@@ -506,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,8 +527,8 @@
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="25" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="26" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="2" customFormat="1">
@@ -594,6 +600,9 @@
       </c>
       <c r="Y1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:66">
@@ -1535,7 +1544,9 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2058,9 +2069,7 @@
       <c r="E20" s="3">
         <v>359152108617743</v>
       </c>
-      <c r="F20" s="3">
-        <v>359777106807803</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2132,9 +2141,7 @@
       <c r="E21" s="3">
         <v>359152108573185</v>
       </c>
-      <c r="F21" s="3">
-        <v>359777107008468</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>

--- a/2020/Stock Imei/imei list.xlsx
+++ b/2020/Stock Imei/imei list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>R40</t>
   </si>
@@ -72,9 +72,6 @@
     <t>mitali</t>
   </si>
   <si>
-    <t>v128</t>
-  </si>
-  <si>
     <t>d54+</t>
   </si>
   <si>
@@ -91,6 +88,24 @@
   </si>
   <si>
     <t>i74</t>
+  </si>
+  <si>
+    <t>i68</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i97</t>
+  </si>
+  <si>
+    <t>v102</t>
+  </si>
+  <si>
+    <t>z50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -190,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +230,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,8 +551,8 @@
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="26" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="34" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="2" customFormat="1">
@@ -581,16 +605,16 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -604,6 +628,30 @@
       <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="3">
@@ -612,10 +660,10 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>358444100839107</v>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3">
+        <v>358444104155245</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>359152107940328</v>
       </c>
@@ -656,12 +704,8 @@
         <v>352605111390860</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3">
-        <v>355599100016767</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="3">
         <v>357653105725084</v>
       </c>
@@ -677,15 +721,29 @@
       <c r="Y2" s="3">
         <v>353428112088527</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="Z2" s="3">
+        <v>357260102493888</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>359999101430726</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>354500108647687</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>352664111343528</v>
+      </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
+      <c r="AF2" s="3">
+        <v>353363111635665</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>353515111443602</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>354343111033367</v>
+      </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
@@ -722,9 +780,7 @@
     <row r="3" spans="1:66">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5">
-        <v>358444100840568</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>359152107937720</v>
@@ -756,10 +812,8 @@
         <v>352605111389128</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3">
-        <v>355599100086497</v>
-      </c>
-      <c r="T3" s="7"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3">
         <v>352785101788842</v>
@@ -771,13 +825,19 @@
       <c r="Y3" s="3">
         <v>353428112088147</v>
       </c>
-      <c r="Z3" s="3"/>
+      <c r="Z3" s="3">
+        <v>357260102489662</v>
+      </c>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="AB3" s="3">
+        <v>354500108633125</v>
+      </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AF3" s="3">
+        <v>353363111627043</v>
+      </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
@@ -816,9 +876,7 @@
     <row r="4" spans="1:66">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5">
-        <v>358444100853546</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>359152107940468</v>
@@ -841,7 +899,9 @@
       <c r="O4" s="3">
         <v>353515112099809</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3">
+        <v>353363111613183</v>
+      </c>
       <c r="Q4" s="3">
         <v>352605111390084</v>
       </c>
@@ -850,7 +910,7 @@
         <v>354500109226101</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -863,11 +923,15 @@
       </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="3">
+        <v>354500108632945</v>
+      </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AF4" s="3">
+        <v>353363111544925</v>
+      </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
@@ -906,9 +970,7 @@
     <row r="5" spans="1:66">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>358444100822780</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>359152107940484</v>
@@ -929,7 +991,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>353363111613142</v>
+      </c>
       <c r="Q5" s="3">
         <v>352605111416244</v>
       </c>
@@ -945,11 +1009,15 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="3">
+        <v>354500108647521</v>
+      </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="3">
+        <v>353363111611781</v>
+      </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
@@ -988,9 +1056,7 @@
     <row r="6" spans="1:66">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>358444100823226</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>359152107929180</v>
@@ -1003,11 +1069,15 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>357655105084743</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>353363111480740</v>
+      </c>
       <c r="Q6" s="3">
         <v>352605111248084</v>
       </c>
@@ -1023,11 +1093,15 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
+      <c r="AB6" s="3">
+        <v>354500108632986</v>
+      </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3">
+        <v>353363111623547</v>
+      </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
@@ -1066,9 +1140,7 @@
     <row r="7" spans="1:66">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>358444100821964</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>359152107938686</v>
@@ -1081,11 +1153,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>357655105000202</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>353363111352485</v>
+      </c>
       <c r="Q7" s="3">
         <v>352605111266433</v>
       </c>
@@ -1101,7 +1177,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="AB7" s="3">
+        <v>354500108632424</v>
+      </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -1144,9 +1222,7 @@
     <row r="8" spans="1:66">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>358444100871043</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>359152107929164</v>
@@ -1159,7 +1235,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>357655105075865</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1179,7 +1257,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="3">
+        <v>354500108647844</v>
+      </c>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -1222,9 +1302,7 @@
     <row r="9" spans="1:66">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>358444100853264</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>359152107929206</v>
@@ -1246,11 +1324,9 @@
         <v>352605111406849</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="3">
-        <v>352605111946885</v>
-      </c>
+      <c r="S9" s="3"/>
       <c r="T9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -1259,7 +1335,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="3">
+        <v>354500108633109</v>
+      </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1302,9 +1380,7 @@
     <row r="10" spans="1:66">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>358444100836343</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>359152107940526</v>
@@ -1326,9 +1402,7 @@
         <v>352605111411542</v>
       </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="3">
-        <v>352605111692109</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="8"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1337,7 +1411,9 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="AB10" s="3">
+        <v>354500108640625</v>
+      </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1380,9 +1456,7 @@
     <row r="11" spans="1:66">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>358444100822988</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>359152107937688</v>
@@ -1404,9 +1478,7 @@
         <v>352605110850906</v>
       </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="3">
-        <v>352605111946943</v>
-      </c>
+      <c r="S11" s="3"/>
       <c r="T11" s="8"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -1415,7 +1487,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="AB11" s="3">
+        <v>354500108648909</v>
+      </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1480,9 +1554,7 @@
         <v>352605111414769</v>
       </c>
       <c r="R12" s="3"/>
-      <c r="S12" s="3">
-        <v>352605111984944</v>
-      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="8"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1491,7 +1563,9 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="AB12" s="3">
+        <v>354500108637423</v>
+      </c>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -1545,7 +1619,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1558,9 +1632,7 @@
         <v>352605111212585</v>
       </c>
       <c r="R13" s="3"/>
-      <c r="S13" s="3">
-        <v>352605111714887</v>
-      </c>
+      <c r="S13" s="3"/>
       <c r="T13" s="7"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -1569,7 +1641,9 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
+      <c r="AB13" s="3">
+        <v>354500108637381</v>
+      </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -1634,12 +1708,8 @@
         <v>352605111266409</v>
       </c>
       <c r="R14" s="3"/>
-      <c r="S14" s="3">
-        <v>359777105185862</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1647,7 +1717,9 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="3">
+        <v>354500108637563</v>
+      </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -1712,10 +1784,8 @@
         <v>352605111414868</v>
       </c>
       <c r="R15" s="3"/>
-      <c r="S15" s="3">
-        <v>359777105189062</v>
-      </c>
-      <c r="T15" s="8"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1723,7 +1793,9 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="AB15" s="3">
+        <v>354500108637324</v>
+      </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -1788,10 +1860,8 @@
         <v>352605111248142</v>
       </c>
       <c r="R16" s="3"/>
-      <c r="S16" s="3">
-        <v>359777105187561</v>
-      </c>
-      <c r="T16" s="7"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1799,7 +1869,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="AB16" s="3">
+        <v>354500108637308</v>
+      </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
@@ -1873,7 +1945,9 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
+      <c r="AB17" s="3">
+        <v>354500108637449</v>
+      </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -1947,7 +2021,9 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="AB18" s="3">
+        <v>354500108637480</v>
+      </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -2021,7 +2097,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
+      <c r="AB19" s="3">
+        <v>354500108635922</v>
+      </c>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -2065,7 +2143,9 @@
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="3">
         <v>359152108617743</v>
       </c>
@@ -2093,7 +2173,9 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="3">
+        <v>354500108637183</v>
+      </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -2165,7 +2247,9 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3">
+        <v>354500108637142</v>
+      </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -2224,7 +2308,9 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>352605111946885</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2235,7 +2321,9 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3">
+        <v>354500108637027</v>
+      </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -2294,7 +2382,9 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3">
+        <v>352605111692109</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2305,7 +2395,9 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+      <c r="AB23" s="3">
+        <v>354500108637506</v>
+      </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -2364,7 +2456,9 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3">
+        <v>352605111946943</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2375,7 +2469,9 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3">
+        <v>354500108637589</v>
+      </c>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
@@ -2434,7 +2530,9 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="3">
+        <v>352605111984944</v>
+      </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2445,7 +2543,9 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
+      <c r="AB25" s="3">
+        <v>354500109226101</v>
+      </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -2490,9 +2590,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>359152108502903</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2515,7 +2613,9 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>354500109227240</v>
+      </c>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
@@ -2560,9 +2660,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>359152108500667</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2585,7 +2683,9 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
+      <c r="AB27" s="3">
+        <v>354500109226309</v>
+      </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
@@ -2630,9 +2730,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3">
-        <v>359152108500584</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2655,7 +2753,9 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="AB28" s="3">
+        <v>354500109226408</v>
+      </c>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -2723,7 +2823,9 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
+      <c r="AB29" s="3">
+        <v>354500109227224</v>
+      </c>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -42476,11 +42578,9 @@
       <c r="BN613" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="T2:T3"/>
+  <mergeCells count="2">
     <mergeCell ref="T4:T8"/>
     <mergeCell ref="T9:T13"/>
-    <mergeCell ref="T14:T16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
